--- a/Clases/AG_10-25-2023.xlsx
+++ b/Clases/AG_10-25-2023.xlsx
@@ -8,102 +8,135 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF8CE02-2BB6-4A3B-A600-73CA2B4AC4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCCEE8-972A-4771-9840-EF091B35ADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A56C292F-9C71-4E43-88C6-7084E961FE8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{A56C292F-9C71-4E43-88C6-7084E961FE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
     <sheet name="Answer Report 1" sheetId="7" r:id="rId2"/>
     <sheet name="Population Report 1" sheetId="8" r:id="rId3"/>
-    <sheet name="Ejercicio 2 AE" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
+    <sheet name="Answer Report 2" sheetId="13" r:id="rId4"/>
+    <sheet name="Population Report 2" sheetId="14" r:id="rId5"/>
+    <sheet name="Ejercicio 2 AE" sheetId="6" r:id="rId6"/>
+    <sheet name="Ejercicio 2 NA" sheetId="9" r:id="rId7"/>
+    <sheet name="Ejercicio 2 GRG" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ejercicio 1'!$G$2:$H$2</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$F$3:$G$3</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$F$3:$G$3</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Ejercicio 2 GRG'!$D$3:$E$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.1</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Ejercicio 1'!$F$3:$F$4</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$E$4:$E$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$E$4:$E$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Ejercicio 2 GRG'!$C$4:$C$5</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Ejercicio 1'!$G$2</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$F$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$F$3</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Ejercicio 1'!$G$2</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$F$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$F$3</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Ejercicio 1'!$H$2</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$G$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$G$3</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Ejercicio 1'!$H$2</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$G$3</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$G$3</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.02</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.05</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Ejercicio 1'!$F$2</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$E$3</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$E$3</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Ejercicio 2 GRG'!$C$3</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Ejercicio 1'!$G$3:$G$4</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$F$4:$F$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$F$4:$F$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'Ejercicio 2 GRG'!$D$4:$D$5</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Ejercicio 1'!$C$5</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$B$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$B$4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Ejercicio 1'!$C$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$B$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$B$6</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Ejercicio 1'!$D$4</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$C$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$C$5</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Ejercicio 1'!$D$7</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Ejercicio 2 AE'!$C$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Ejercicio 2 AE'!$C$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">1000000</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="87">
   <si>
     <t>Max Z =x+2y</t>
   </si>
@@ -357,6 +390,36 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>Parametros</t>
+  </si>
+  <si>
+    <t>100 individuos, 7.5% de mutacion 0.0001 de convergencia</t>
+  </si>
+  <si>
+    <t>Worksheet: [AG_10-25-2023.xlsx]Ejercicio 2 AE</t>
+  </si>
+  <si>
+    <t>5000 individuos, 20% de mutacion, 14134 poblaciones y 0.00001 de convergencia</t>
+  </si>
+  <si>
+    <t>Report Created: 10/26/2023 12:23:20 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 47 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 0 Subproblems: 14400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convergence 0.001, Population Size 10000, Random Seed 0, Mutation Rate 0.05, Time w/o Improve 30 sec, Require Bounds</t>
+  </si>
+  <si>
+    <t>10000 individuos, 5% de mutacion, 14400 poblaciones 0.001 de convergencia</t>
+  </si>
+  <si>
+    <t>Max Z =x^2+3y</t>
   </si>
 </sst>
 </file>
@@ -481,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -506,6 +569,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +900,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,120 +1553,317 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA718AB-0EEF-423C-B8A0-FEFF487467AA}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA6EE7C-01E7-44D9-86BC-95BAF44D8CE1}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10">
-        <f>F3^2+2*G3</f>
-        <v>99.999337119833328</v>
-      </c>
-      <c r="F3" s="10">
-        <v>9.9999668429711335</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1.2965563504050274E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="10">
-        <f>35/2</f>
-        <v>17.5</v>
-      </c>
-      <c r="C4" s="10">
-        <f>35/4</f>
-        <v>8.75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <f>2*F3+4*G3</f>
-        <v>19.999934204564806</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="10">
-        <f>30/3</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <f>3*F3+2*G3</f>
-        <v>29.999900788224672</v>
-      </c>
-      <c r="F5">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>99.741484367970259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>9.9853502586217733</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1.7132290306172977E-2</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="18">
+        <v>20.039229678468239</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="16">
+        <v>14.960770321531761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="18">
+        <v>29.990315356477666</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="16">
+        <v>9.6846435223341132E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="18">
+        <v>9.9853502586217733</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="16">
+        <v>7.5146497413782267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="18">
+        <v>9.9853502586217733</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="18">
+        <v>9.9853502586217733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1.7132290306172977E-2</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="16">
+        <v>14.982867709693828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1.7132290306172977E-2</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1.7132290306172977E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1598,11 +1872,403 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BF51FB-1FC1-4C3E-8ADA-D140A49FCFD0}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9.9853502586217733</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6.4840511661875597</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2.3264140569633369</v>
+      </c>
+      <c r="G9" s="16">
+        <v>9.9853502586217733</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.7132290306172977E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2.6170623474485546</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1.6204222323703228</v>
+      </c>
+      <c r="G10" s="14">
+        <v>8.7086710630490778</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="18">
+        <v>20.039229678468239</v>
+      </c>
+      <c r="E15" s="18">
+        <v>23.436351722169434</v>
+      </c>
+      <c r="F15" s="16">
+        <v>6.0534198873652514</v>
+      </c>
+      <c r="G15" s="16">
+        <v>34.989330418081103</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="17">
+        <v>29.990315356477666</v>
+      </c>
+      <c r="E16" s="17">
+        <v>24.686278193459898</v>
+      </c>
+      <c r="F16" s="14">
+        <v>6.2409925289893922</v>
+      </c>
+      <c r="G16" s="14">
+        <v>29.997486675855466</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA718AB-0EEF-423C-B8A0-FEFF487467AA}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="68.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <f>F3^2+2*G3</f>
+        <v>98.399689995136256</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9.9071615235447705</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.12392027076516314</v>
+      </c>
+      <c r="J3" s="10">
+        <v>99.999337119833328</v>
+      </c>
+      <c r="K3" s="10">
+        <v>9.9999668429711335</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1.2965563504050274E-7</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="10">
+        <f>35/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="C4" s="10">
+        <f>35/4</f>
+        <v>8.75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f>2*F3+4*G3</f>
+        <v>20.310004130150194</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10">
+        <v>99.963227493578643</v>
+      </c>
+      <c r="K4" s="10">
+        <v>9.9981612056206934</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="10">
+        <f>30/3</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f>3*F3+2*G3</f>
+        <v>29.969325112164636</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>99.845628534522461</v>
+      </c>
+      <c r="K5">
+        <v>9.9918084276871859</v>
+      </c>
+      <c r="L5">
+        <v>4.6964394608914901E-3</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B424-AE82-4EA8-8E0A-64762CDFECCC}">
   <dimension ref="A1:T751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,23 +2307,23 @@
       </c>
       <c r="O1">
         <f ca="1">MAX(L2:L101)</f>
-        <v>77.172703081199401</v>
+        <v>61.640534292419616</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="12">
         <f ca="1">RAND()*17.5</f>
-        <v>1.4115357330223435</v>
+        <v>7.1877375709912696</v>
       </c>
       <c r="G2">
         <f ca="1">RAND()*15</f>
-        <v>0.12571316399108134</v>
+        <v>0.85074883102669308</v>
       </c>
       <c r="H2">
         <f ca="1">IF(2*F2+4*G2&lt;=35,1,0)</f>
@@ -1668,15 +2334,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="13">
-        <f ca="1">IF(H2*I2=1,F2^2+2*G2,"X")</f>
-        <v>2.243859453581087</v>
+        <f ca="1">IF(H2*I2=1,F2^2+3*G2,"X")</f>
+        <v>54.215817882519552</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
       <c r="O2">
         <f ca="1">INDEX(F2:F101, MATCH(O1,L2:L101,0))</f>
-        <v>8.7596799154483413</v>
+        <v>7.4255091813766505</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1694,11 +2360,11 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F66" ca="1" si="0">RAND()*17.5</f>
-        <v>2.0468771509206789</v>
+        <v>11.589919683232196</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">RAND()*15</f>
-        <v>13.027734835915501</v>
+        <v>7.8250842090761479</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">IF(2*F3+4*G3&lt;=35,1,0)</f>
@@ -1717,7 +2383,7 @@
       </c>
       <c r="O3">
         <f ca="1">INDEX(G2:G101, MATCH(O1,L2:L101,0))</f>
-        <v>0.22035543004516656</v>
+        <v>3.2511738448553427</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1740,11 +2406,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2313538791378997</v>
+        <v>16.654623208051543</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>14.605529532785596</v>
+        <v>10.287905423421563</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
@@ -1796,11 +2462,11 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3903993819938716</v>
+        <v>8.321035670123436</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.065151363669749</v>
+        <v>14.038185183233406</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
@@ -1818,7 +2484,7 @@
         <v>70</v>
       </c>
       <c r="O5">
-        <v>89.840990929052268</v>
+        <v>96.840990929052296</v>
       </c>
       <c r="P5">
         <v>87.136026709003076</v>
@@ -1848,23 +2514,23 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11592154850546127</v>
+        <v>15.988900023607298</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1411843108618198</v>
+        <v>3.9354735564107561</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2958064271315433</v>
+        <v>X</v>
       </c>
       <c r="N6" t="s">
         <v>6</v>
@@ -1897,11 +2563,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0136935171586328</v>
+        <v>6.5745941444558467</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9989641620830607</v>
+        <v>1.6031778442236226</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
@@ -1913,7 +2579,7 @@
       </c>
       <c r="L7" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>18.052889905212826</v>
+        <v>46.431643852760352</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -1940,23 +2606,23 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5582232187208489</v>
+        <v>17.435517696570717</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7352642434651688</v>
+        <v>14.894702013914268</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>11.782141648849402</v>
+        <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1965,11 +2631,11 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.757969918038263</v>
+        <v>10.80244408276247</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5615289580657254</v>
+        <v>7.8440314844306993</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
@@ -1990,11 +2656,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.413611891087315</v>
+        <v>6.9140032533194455</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>12.503774639722446</v>
+        <v>11.803125234245227</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
@@ -2015,15 +2681,15 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.069056551010817</v>
+        <v>10.027304944991956</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>13.654229813523598</v>
+        <v>1.9296957630308249</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
@@ -2040,23 +2706,23 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4020168846905161</v>
+        <v>7.4255091813766505</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7098317748868723</v>
+        <v>3.2511738448553427</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>61.640534292419616</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2065,15 +2731,15 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8893737789770917</v>
+        <v>12.130734841371655</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7453356641341351</v>
+        <v>1.7898493598848391</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
@@ -2090,23 +2756,23 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5345520816528593</v>
+        <v>15.12828246742575</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9524546503064215</v>
+        <v>12.499258091514264</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>24.397967718529404</v>
+        <v>X</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2115,23 +2781,23 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7594769345747574</v>
+        <v>12.925176856965633</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.121056377059479</v>
+        <v>9.4624116524500383</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>47.932641183167114</v>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2140,11 +2806,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5613123461674743</v>
+        <v>11.244055440664638</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0838726251337096</v>
+        <v>8.1863293207284276</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
@@ -2165,23 +2831,23 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2628085597045686</v>
+        <v>7.0869116054819035</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8475665648665061</v>
+        <v>0.5984965420452365</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>51.421309188004564</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -2190,15 +2856,15 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7243634573289857</v>
+        <v>9.9581214182573543</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.137630132775836</v>
+        <v>3.4474547854450899</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
@@ -2215,11 +2881,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2553676727553944</v>
+        <v>11.82950065256775</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.140059613996266</v>
+        <v>9.0433054878794188</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
@@ -2240,23 +2906,23 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2039072609708068</v>
+        <v>16.742815129237435</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7006379140622196E-2</v>
+        <v>2.8094798723887626</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>67.338107104890781</v>
+        <v>X</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
@@ -2265,23 +2931,23 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5053742882791283</v>
+        <v>15.592726053716095</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74733793081467048</v>
+        <v>10.196101533015971</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>57.825319068790769</v>
+        <v>X</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
@@ -2290,11 +2956,11 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.242823159422244</v>
+        <v>10.390221943518176</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>10.585962531304794</v>
+        <v>13.261641145914997</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
@@ -2315,11 +2981,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.381782280084876</v>
+        <v>9.1279344636749364</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.222719369094685</v>
+        <v>8.4922360076873886</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
@@ -2340,11 +3006,11 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2534914402510846E-2</v>
+        <v>1.733439442898346</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2402686884429581</v>
+        <v>3.7362353149076926</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
@@ -2356,7 +3022,7 @@
       </c>
       <c r="L24" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>16.483297294117197</v>
+        <v>10.477282932011112</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.3">
@@ -2365,11 +3031,11 @@
       </c>
       <c r="F25" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.215109790900089</v>
+        <v>1.4558706647839992</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2915190222171924</v>
+        <v>4.0918529721949097</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
@@ -2381,7 +3047,7 @@
       </c>
       <c r="L25" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4897494301758201</v>
+        <v>10.303265336968423</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.3">
@@ -2390,11 +3056,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2241642965484179</v>
+        <v>11.108601194817759</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2018504078749519</v>
+        <v>3.642520471199306</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
@@ -2415,23 +3081,23 @@
       </c>
       <c r="F27" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.443475283702554</v>
+        <v>2.2439448416324073</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0143853846785138</v>
+        <v>6.5076798677504</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>18.050648187789491</v>
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
@@ -2440,23 +3106,23 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5054446321900912</v>
+        <v>10.348559635782143</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0276274702188584</v>
+        <v>3.9311349171008296</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>24.354286274168224</v>
+        <v>X</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.3">
@@ -2465,11 +3131,11 @@
       </c>
       <c r="F29" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28840721702716121</v>
+        <v>12.203379625995739</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.108985321419622</v>
+        <v>8.4036926426714196</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
@@ -2477,7 +3143,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2490,11 +3156,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.942701324553463</v>
+        <v>9.5172924396727314</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.790201411998181</v>
+        <v>4.7020967060367882</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
@@ -2515,11 +3181,11 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0303112626863467</v>
+        <v>15.220625103817618</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>12.869130506218749</v>
+        <v>12.369802723117623</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
@@ -2540,11 +3206,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3870494801139932</v>
+        <v>3.2430093068106114</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60287889880008216</v>
+        <v>5.4606489133110401</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
@@ -2556,7 +3222,7 @@
       </c>
       <c r="L32" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>42.000158859024594</v>
+        <v>21.438407190682323</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.3">
@@ -2565,23 +3231,23 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7596799154483413</v>
+        <v>14.752666537688714</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22035543004516656</v>
+        <v>6.1481165585682378</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>77.172703081199401</v>
+        <v>X</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.3">
@@ -2590,11 +3256,11 @@
       </c>
       <c r="F34" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.37496092322678</v>
+        <v>1.2147791075188135</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>10.091821502281462</v>
+        <v>12.006189688110698</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
@@ -2602,7 +3268,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2615,23 +3281,23 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.589240736202552</v>
+        <v>0.81872888776665931</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>5.884461630723627</v>
+        <v>6.4754584160345381</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>13.621233823732707</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.3">
@@ -2640,11 +3306,11 @@
       </c>
       <c r="F36" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2856829962581315</v>
+        <v>6.6058964733651919</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6830699970841305</v>
+        <v>10.929061768125516</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
@@ -2665,23 +3331,23 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0001465031774432</v>
+        <v>10.543398256248999</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5133307074991444</v>
+        <v>11.18652335044275</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>22.027540455526129</v>
+        <v>X</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.3">
@@ -2690,23 +3356,23 @@
       </c>
       <c r="F38" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.349575454356469</v>
+        <v>2.2718083665547146</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6869447803579103</v>
+        <v>5.6466299179318833</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>16.454373090211767</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.3">
@@ -2715,11 +3381,11 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.194471627401915</v>
+        <v>8.1955526770526674</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>13.957626283583696</v>
+        <v>14.924094790329375</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
@@ -2740,11 +3406,11 @@
       </c>
       <c r="F40" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4375787861542282</v>
+        <v>11.735660299305781</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>13.732975247713735</v>
+        <v>5.2020326070127831</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
@@ -2765,23 +3431,23 @@
       </c>
       <c r="F41" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31386002213484587</v>
+        <v>1.2921200388105563</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>14.80702746110215</v>
+        <v>5.1540000279352896</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>11.977574250566372</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.3">
@@ -2790,23 +3456,23 @@
       </c>
       <c r="F42" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1262692373430419</v>
+        <v>5.6050471580680954</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>14.19442178221386</v>
+        <v>0.72386543972576711</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>32.864284523618771</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.3">
@@ -2815,11 +3481,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.492134405157872</v>
+        <v>7.677520804272679</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>12.029708948889086</v>
+        <v>10.142637766276669</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
@@ -2840,11 +3506,11 @@
       </c>
       <c r="F44" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5481651105964627</v>
+        <v>15.204744825897933</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6151878626315073</v>
+        <v>14.698031075012615</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
@@ -2865,15 +3531,15 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.405851014345792</v>
+        <v>10.888018928230569</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0994276195961949</v>
+        <v>4.949853124301872</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="3"/>
@@ -2890,11 +3556,11 @@
       </c>
       <c r="F46" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1643975964953808</v>
+        <v>5.386875979375044</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1275510219740212</v>
+        <v>1.7667445297106921</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
@@ -2906,7 +3572,7 @@
       </c>
       <c r="L46" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6109238066722611</v>
+        <v>32.551921876589219</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.3">
@@ -2915,11 +3581,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1940494933501222</v>
+        <v>13.760836186502662</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4749737512202117</v>
+        <v>9.3504383989468476</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
@@ -2927,7 +3593,7 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2940,11 +3606,11 @@
       </c>
       <c r="F48" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.002552984677761</v>
+        <v>15.794652489283319</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>11.185610271304201</v>
+        <v>1.7698402915787055</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
@@ -2965,11 +3631,11 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3402720514754334</v>
+        <v>2.7908479508962798</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8566778043109409</v>
+        <v>11.412642370510415</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
@@ -2990,23 +3656,23 @@
       </c>
       <c r="F50" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4673689497915827</v>
+        <v>0.16866166645327557</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6435211780033701</v>
+        <v>7.5669484085603571</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>15.16234357485151</v>
       </c>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.3">
@@ -3015,23 +3681,23 @@
       </c>
       <c r="F51" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.098655712086895</v>
+        <v>2.4230996916671295</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>13.793728552742309</v>
+        <v>7.3232566954982721</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L51" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>20.517925506753883</v>
       </c>
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.3">
@@ -3040,11 +3706,11 @@
       </c>
       <c r="F52" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67510880752838265</v>
+        <v>14.458751386411835</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8865856958201128</v>
+        <v>5.1455877961420979</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
@@ -3052,7 +3718,7 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3065,11 +3731,11 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7922113316548103</v>
+        <v>8.7351163864691639</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7820147997924742</v>
+        <v>8.7408624893543383</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
@@ -3090,11 +3756,11 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.351579761123871</v>
+        <v>16.565655453222551</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>13.149702738943398</v>
+        <v>8.6769939912137968</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
@@ -3115,11 +3781,11 @@
       </c>
       <c r="F55" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2883501238122275</v>
+        <v>6.7759606447768537</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1910880696097688</v>
+        <v>2.4013542082410515</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
@@ -3131,7 +3797,7 @@
       </c>
       <c r="L55" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>7.6187224283709742</v>
+        <v>50.716351076046863</v>
       </c>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.3">
@@ -3140,23 +3806,23 @@
       </c>
       <c r="F56" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.331039556190893</v>
+        <v>5.1224976359130112</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0017577049781465</v>
+        <v>0.88804780212429102</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>28.01607763418297</v>
       </c>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.3">
@@ -3165,23 +3831,23 @@
       </c>
       <c r="F57" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7275992148315731</v>
+        <v>6.3434247697968695</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>11.948489902118672</v>
+        <v>3.0702273318709512</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>46.379492473814366</v>
       </c>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.3">
@@ -3190,23 +3856,23 @@
       </c>
       <c r="F58" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.030174135796782</v>
+        <v>1.1683609236046597</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>12.898737226854248</v>
+        <v>5.7788728790605282</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L58" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>12.92281300592739</v>
       </c>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.3">
@@ -3215,11 +3881,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.975036654223345</v>
+        <v>0.52454286959886132</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9435017925910918</v>
+        <v>12.271177213451375</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
@@ -3227,7 +3893,7 @@
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3240,11 +3906,11 @@
       </c>
       <c r="F60" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.399651842161333</v>
+        <v>4.5050051778436595</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>12.84477441729425</v>
+        <v>8.1173341953627105</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
@@ -3252,7 +3918,7 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3265,23 +3931,23 @@
       </c>
       <c r="F61" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11685542398353177</v>
+        <v>16.898975888882937</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0797029098340198</v>
+        <v>3.4439023779191063</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L61" s="13">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>10.17306100978241</v>
+        <v>X</v>
       </c>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.3">
@@ -3290,15 +3956,15 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.669045972439447</v>
+        <v>15.880753161753832</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1039383413618324</v>
+        <v>0.35735644065547523</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="3"/>
@@ -3315,11 +3981,11 @@
       </c>
       <c r="F63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.330343238681406</v>
+        <v>15.756105529166499</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2730511888216371</v>
+        <v>11.171332588040162</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
@@ -3340,15 +4006,15 @@
       </c>
       <c r="F64" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.114630317721712</v>
+        <v>11.38696101407106</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4362513289778303</v>
+        <v>0.87753597305551601</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="3"/>
@@ -3365,11 +4031,11 @@
       </c>
       <c r="F65" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.276862436799703</v>
+        <v>4.4044071840749135</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6513754311601383</v>
+        <v>11.113172007779806</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
@@ -3390,23 +4056,23 @@
       </c>
       <c r="F66" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3395589404804102</v>
+        <v>8.4418875909093707</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36043444022233528</v>
+        <v>9.392602977119985</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L66" s="13">
+        <v>0</v>
+      </c>
+      <c r="L66" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>40.910876440269774</v>
+        <v>X</v>
       </c>
     </row>
     <row r="67" spans="5:12" x14ac:dyDescent="0.3">
@@ -3415,23 +4081,23 @@
       </c>
       <c r="F67" s="12">
         <f t="shared" ref="F67:F101" ca="1" si="5">RAND()*17.5</f>
-        <v>17.065213330220367</v>
+        <v>5.7037452970689957</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="6">RAND()*15</f>
-        <v>13.729402306473176</v>
+        <v>3.0217005660592378</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H101" ca="1" si="7">IF(2*F67+4*G67&lt;=35,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" ca="1" si="8">IF(3*F67+2*G67&lt;=30,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L67" s="13">
         <f t="shared" ref="L67:L101" ca="1" si="9">IF(H67*I67=1,F67^2+2*G67,"X")</f>
-        <v>X</v>
+        <v>38.576111545955165</v>
       </c>
     </row>
     <row r="68" spans="5:12" x14ac:dyDescent="0.3">
@@ -3440,23 +4106,23 @@
       </c>
       <c r="F68" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3088533878270225</v>
+        <v>14.92939990180095</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8108556728184126</v>
+        <v>9.8673187960208217</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16.570222087771192</v>
+        <v>X</v>
       </c>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.3">
@@ -3465,23 +4131,23 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55939753913499124</v>
+        <v>6.359189531620836</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>10.583390020402215</v>
+        <v>1.4958761300764134</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="L69" s="13" t="str">
+      <c r="L69" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>43.431043759228857</v>
       </c>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.3">
@@ -3490,11 +4156,11 @@
       </c>
       <c r="F70" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>4.211912658179501</v>
+        <v>7.6945300535935921</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>11.133828513225682</v>
+        <v>10.930181549065164</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="7"/>
@@ -3515,23 +4181,23 @@
       </c>
       <c r="F71" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.161587043488851</v>
+        <v>1.320349605000279</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>10.263163506438449</v>
+        <v>1.6197994758507543</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L71" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>4.9829220311259013</v>
       </c>
     </row>
     <row r="72" spans="5:12" x14ac:dyDescent="0.3">
@@ -3540,15 +4206,15 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>10.543104291871565</v>
+        <v>5.4709384394431817</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8783931664896309</v>
+        <v>12.178892989649366</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
@@ -3565,11 +4231,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4103985310962095</v>
+        <v>15.149936610598525</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1853676313898891</v>
+        <v>3.8219702311477173</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="7"/>
@@ -3590,11 +4256,11 @@
       </c>
       <c r="F74" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6644132543030734</v>
+        <v>12.720455259238486</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6429438561956551</v>
+        <v>1.1494637362586553</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="7"/>
@@ -3602,11 +4268,11 @@
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L74" s="13">
+        <v>0</v>
+      </c>
+      <c r="L74" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>47.700291736521791</v>
+        <v>X</v>
       </c>
     </row>
     <row r="75" spans="5:12" x14ac:dyDescent="0.3">
@@ -3615,11 +4281,11 @@
       </c>
       <c r="F75" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.307274218919517</v>
+        <v>9.7809115546819303</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6050147963666923</v>
+        <v>8.5872167144366642</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="7"/>
@@ -3640,11 +4306,11 @@
       </c>
       <c r="F76" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3928566970321885</v>
+        <v>15.2589159878969</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>13.07488825620853</v>
+        <v>8.8606398912558237</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="7"/>
@@ -3665,11 +4331,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5310580788794272</v>
+        <v>10.101778172189944</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>11.016844904723243</v>
+        <v>8.0598171530420402</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="7"/>
@@ -3690,11 +4356,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.266290698897894</v>
+        <v>10.968207192932672</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0169811859397182</v>
+        <v>3.8734992244030431</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="7"/>
@@ -3715,11 +4381,11 @@
       </c>
       <c r="F79" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.255163670442236</v>
+        <v>2.0958540728536805</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4513776252313413</v>
+        <v>8.8101897352607139</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="7"/>
@@ -3727,7 +4393,7 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3740,11 +4406,11 @@
       </c>
       <c r="F80" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0313969612790084</v>
+        <v>11.613600197679503</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>14.674100928753456</v>
+        <v>8.1628687553778452</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="7"/>
@@ -3765,11 +4431,11 @@
       </c>
       <c r="F81" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2330162113015088</v>
+        <v>0.51596254943329112</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>11.614697973819016</v>
+        <v>12.161636261289392</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="7"/>
@@ -3777,7 +4443,7 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3790,15 +4456,15 @@
       </c>
       <c r="F82" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.149102659775647</v>
+        <v>12.064789099647287</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>12.574376045197152</v>
+        <v>0.89414919764739476</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
@@ -3815,23 +4481,23 @@
       </c>
       <c r="F83" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2311509169723953</v>
+        <v>11.244725263340982</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4109764515403358</v>
+        <v>10.147157063418073</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>18.724590985277011</v>
+        <v>X</v>
       </c>
     </row>
     <row r="84" spans="5:12" x14ac:dyDescent="0.3">
@@ -3840,11 +4506,11 @@
       </c>
       <c r="F84" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.38187385613532</v>
+        <v>11.216823294491579</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>13.183893943326174</v>
+        <v>6.5054106080305312</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="7"/>
@@ -3865,11 +4531,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.539320892435638</v>
+        <v>1.7146662872402743</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>5.022299500863185</v>
+        <v>8.9148309373022894</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="7"/>
@@ -3877,7 +4543,7 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3890,11 +4556,11 @@
       </c>
       <c r="F86" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.115153517372551</v>
+        <v>11.764065937942787</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>13.747496343024492</v>
+        <v>13.807245007001743</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="7"/>
@@ -3915,11 +4581,11 @@
       </c>
       <c r="F87" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>14.863602952083768</v>
+        <v>8.4263640504329942</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7387518361750249</v>
+        <v>8.3778425949015265</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="7"/>
@@ -3940,11 +4606,11 @@
       </c>
       <c r="F88" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>10.485779171082207</v>
+        <v>14.0973053588126</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>11.421925560732157</v>
+        <v>5.3287383279185967</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="7"/>
@@ -3965,11 +4631,11 @@
       </c>
       <c r="F89" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.34723288122709</v>
+        <v>9.718002326440212</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>12.199995758289292</v>
+        <v>10.202275973905911</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="7"/>
@@ -3990,11 +4656,11 @@
       </c>
       <c r="F90" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4902615423532524</v>
+        <v>9.9060999159675855</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>10.015327458706791</v>
+        <v>14.859683053388462</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="7"/>
@@ -4015,11 +4681,11 @@
       </c>
       <c r="F91" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6703502482542314</v>
+        <v>5.2554502002019436</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>12.648008090856379</v>
+        <v>11.597329862628778</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="7"/>
@@ -4040,11 +4706,11 @@
       </c>
       <c r="F92" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.544381809418178</v>
+        <v>11.781443145761159</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>9.308442809675638</v>
+        <v>6.2370569693374813</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="7"/>
@@ -4065,23 +4731,23 @@
       </c>
       <c r="F93" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.439876009800344</v>
+        <v>3.8965797875712913</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>10.166106929561844</v>
+        <v>3.1298359405252061</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L93" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>21.443005921959539</v>
       </c>
     </row>
     <row r="94" spans="5:12" x14ac:dyDescent="0.3">
@@ -4090,11 +4756,11 @@
       </c>
       <c r="F94" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.044930711371503</v>
+        <v>4.8981277648654959</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8275571251634037</v>
+        <v>10.99202244962262</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="7"/>
@@ -4115,23 +4781,23 @@
       </c>
       <c r="F95" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9680300855040063</v>
+        <v>0.86056569189825793</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>13.116529713976282</v>
+        <v>5.9633624884656999</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L95" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>12.667298287003728</v>
       </c>
     </row>
     <row r="96" spans="5:12" x14ac:dyDescent="0.3">
@@ -4140,23 +4806,23 @@
       </c>
       <c r="F96" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1173066843994326</v>
+        <v>12.11154787986321</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7426104564438845</v>
+        <v>10.802678051718456</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L96" s="13">
+        <v>0</v>
+      </c>
+      <c r="L96" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>4.7335951398914222</v>
+        <v>X</v>
       </c>
     </row>
     <row r="97" spans="5:12" x14ac:dyDescent="0.3">
@@ -4165,11 +4831,11 @@
       </c>
       <c r="F97" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9276794767552232</v>
+        <v>13.296066306466825</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="6"/>
-        <v>10.045619572366537</v>
+        <v>14.525536717624126</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="7"/>
@@ -4190,11 +4856,11 @@
       </c>
       <c r="F98" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.672877351297503</v>
+        <v>15.787395278957087</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3212463708839906</v>
+        <v>7.0629840477258945</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="7"/>
@@ -4215,11 +4881,11 @@
       </c>
       <c r="F99" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>10.485917452414355</v>
+        <v>5.1595584655409761</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9726675058145373</v>
+        <v>6.1972332461546156</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="7"/>
@@ -4227,7 +4893,7 @@
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4240,11 +4906,11 @@
       </c>
       <c r="F100" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0997494630142519</v>
+        <v>12.070793849837315</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9520379544110815</v>
+        <v>10.967908641792262</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="7"/>
@@ -4265,23 +4931,23 @@
       </c>
       <c r="F101" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.105773370993973</v>
+        <v>1.9172621267829626</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7668336307225374</v>
+        <v>4.2495365611545139</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L101" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>12.174967185105357</v>
       </c>
     </row>
     <row r="102" spans="5:12" x14ac:dyDescent="0.3">
@@ -6883,6 +7549,87 @@
     <row r="751" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F751" s="12"/>
       <c r="L751" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAABCF8-759C-4405-B0A6-BE54EFF7A346}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <f>D3^2+3*E3</f>
+        <v>26.25</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <f>2*D3+4*E3</f>
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <f>3*D3+2*E3</f>
+        <v>17.5</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Clases/AG_10-25-2023.xlsx
+++ b/Clases/AG_10-25-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Clases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCCEE8-972A-4771-9840-EF091B35ADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6F8A8-3450-4A53-8C56-B89C80F187D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{A56C292F-9C71-4E43-88C6-7084E961FE8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{A56C292F-9C71-4E43-88C6-7084E961FE8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
@@ -120,7 +120,7 @@
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">1000000</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">10</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,20 +569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,13 +889,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +924,7 @@
         <v>4.9991080929839429</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -959,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -980,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -991,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>0</v>
       </c>
@@ -999,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,86 +1004,86 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1125,12 +1111,12 @@
         <v>99.999337119833328</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1181,12 +1167,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
@@ -1226,7 +1212,7 @@
         <v>15.000065795435194</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
@@ -1246,7 +1232,7 @@
         <v>9.9211775328456042E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1252,7 @@
         <v>7.5000331570288665</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1272,7 @@
         <v>9.9999668429711335</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
@@ -1306,7 +1292,7 @@
         <v>14.999999870344364</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
@@ -1337,36 +1323,36 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
@@ -1385,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1431,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
@@ -1454,12 +1440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
@@ -1478,7 +1464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>57</v>
       </c>
@@ -1524,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1558,311 +1544,311 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <v>99.741484367970259</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
         <v>9.9853502586217733</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>1.7132290306172977E-2</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="7">
         <v>20.039229678468239</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="7">
         <v>14.960770321531761</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="7">
         <v>29.990315356477666</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="7">
         <v>9.6846435223341132E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="7">
         <v>9.9853502586217733</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="7">
         <v>7.5146497413782267</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="7">
         <v>9.9853502586217733</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="7">
         <v>9.9853502586217733</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="7">
         <v>1.7132290306172977E-2</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="7">
         <v>14.982867709693828</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="5">
         <v>1.7132290306172977E-2</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="5">
         <v>1.7132290306172977E-2</v>
       </c>
     </row>
@@ -1877,213 +1863,213 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="7">
         <v>9.9853502586217733</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="7">
         <v>6.4840511661875597</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="7">
         <v>2.3264140569633369</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="7">
         <v>9.9853502586217733</v>
       </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="5">
         <v>1.7132290306172977E-2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="5">
         <v>2.6170623474485546</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="5">
         <v>1.6204222323703228</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="5">
         <v>8.7086710630490778</v>
       </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="7">
         <v>20.039229678468239</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="7">
         <v>23.436351722169434</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="7">
         <v>6.0534198873652514</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="7">
         <v>34.989330418081103</v>
       </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="5">
         <v>29.990315356477666</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="5">
         <v>24.686278193459898</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="5">
         <v>6.2409925289893922</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="5">
         <v>29.997486675855466</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2096,22 +2082,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA718AB-0EEF-423C-B8A0-FEFF487467AA}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2137,7 +2123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2149,13 +2135,13 @@
       </c>
       <c r="E3" s="10">
         <f>F3^2+2*G3</f>
-        <v>98.399689995136256</v>
+        <v>75.82972873071148</v>
       </c>
       <c r="F3" s="10">
-        <v>9.9071615235447705</v>
+        <v>8.4878906923259212</v>
       </c>
       <c r="G3" s="10">
-        <v>0.12392027076516314</v>
+        <v>1.8927201629192429</v>
       </c>
       <c r="J3" s="10">
         <v>99.999337119833328</v>
@@ -2170,7 +2156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2187,7 +2173,7 @@
       </c>
       <c r="E4">
         <f>2*F3+4*G3</f>
-        <v>20.310004130150194</v>
+        <v>24.546662036328815</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -2205,7 +2191,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2221,7 +2207,7 @@
       </c>
       <c r="E5">
         <f>3*F3+2*G3</f>
-        <v>29.969325112164636</v>
+        <v>29.249112402816252</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -2235,11 +2221,11 @@
       <c r="L5">
         <v>4.6964394608914901E-3</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2267,20 +2253,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2B424-AE82-4EA8-8E0A-64762CDFECCC}">
   <dimension ref="A1:T751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2307,10 +2293,10 @@
       </c>
       <c r="O1">
         <f ca="1">MAX(L2:L101)</f>
-        <v>61.640534292419616</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>80.098102781917788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2319,33 +2305,33 @@
       </c>
       <c r="F2" s="12">
         <f ca="1">RAND()*17.5</f>
-        <v>7.1877375709912696</v>
+        <v>5.6189861519386239</v>
       </c>
       <c r="G2">
         <f ca="1">RAND()*15</f>
-        <v>0.85074883102669308</v>
+        <v>13.275402701517333</v>
       </c>
       <c r="H2">
         <f ca="1">IF(2*F2+4*G2&lt;=35,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f ca="1">IF(3*F2+2*G2&lt;=30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="str">
         <f ca="1">IF(H2*I2=1,F2^2+3*G2,"X")</f>
-        <v>54.215817882519552</v>
+        <v>X</v>
       </c>
       <c r="N2" t="s">
         <v>6</v>
       </c>
       <c r="O2">
         <f ca="1">INDEX(F2:F101, MATCH(O1,L2:L101,0))</f>
-        <v>7.4255091813766505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.7840279719977499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2360,15 +2346,15 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F66" ca="1" si="0">RAND()*17.5</f>
-        <v>11.589919683232196</v>
+        <v>12.175197142333619</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">RAND()*15</f>
-        <v>7.8250842090761479</v>
+        <v>1.4191725513644986</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">IF(2*F3+4*G3&lt;=35,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" ca="1" si="3">IF(3*F3+2*G3&lt;=30,1,0)</f>
@@ -2383,10 +2369,10 @@
       </c>
       <c r="O3">
         <f ca="1">INDEX(G2:G101, MATCH(O1,L2:L101,0))</f>
-        <v>3.2511738448553427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.4694776845394402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2406,11 +2392,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.654623208051543</v>
+        <v>4.122167409498835</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.287905423421563</v>
+        <v>10.398174525745425</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
@@ -2443,7 +2429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2462,15 +2448,15 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.321035670123436</v>
+        <v>11.656344440545382</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.038185183233406</v>
+        <v>0.55853180731460894</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
@@ -2499,7 +2485,7 @@
         <v>63.080881665539039</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2514,11 +2500,11 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.988900023607298</v>
+        <v>8.7601970579296395</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9354735564107561</v>
+        <v>7.5674469423009416</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
@@ -2551,7 +2537,7 @@
         <v>7.6124440328990559</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -2563,23 +2549,23 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5745941444558467</v>
+        <v>6.7954436680929646</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6031778442236226</v>
+        <v>8.3927843085044529</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>46.431643852760352</v>
+        <v>X</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -2600,17 +2586,17 @@
         <v>2.5657887557592973</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.435517696570717</v>
+        <v>14.461343883282019</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>14.894702013914268</v>
+        <v>10.722882182083403</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
@@ -2625,17 +2611,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.80244408276247</v>
+        <v>6.2025956208424118</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8440314844306993</v>
+        <v>11.564135711871877</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
@@ -2650,17 +2636,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9140032533194455</v>
+        <v>15.98370929414066</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>11.803125234245227</v>
+        <v>8.7850940816207252</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
@@ -2675,17 +2661,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.027304944991956</v>
+        <v>4.970251404011484</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9296957630308249</v>
+        <v>2.2025365079724422</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
@@ -2693,53 +2679,53 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>29.108472035023013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.348875132337181</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0056061852164113</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4255091813766505</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2511738448553427</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>61.640534292419616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.130734841371655</v>
+        <v>12.521609556187094</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7898493598848391</v>
+        <v>10.331455652639754</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
@@ -2750,17 +2736,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.12828246742575</v>
+        <v>4.5114194672500352</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>12.499258091514264</v>
+        <v>9.5701094573703038</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
@@ -2775,42 +2761,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.925176856965633</v>
+        <v>1.1657173833006347</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4624116524500383</v>
+        <v>3.7842169570038919</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8.9273309317370622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.244055440664638</v>
+        <v>6.8214105005977252</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1863293207284276</v>
+        <v>9.8923119318887363</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
@@ -2825,17 +2811,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0869116054819035</v>
+        <v>2.6281212418887763</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5984965420452365</v>
+        <v>1.9504101318396398</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
@@ -2847,45 +2833,45 @@
       </c>
       <c r="L17" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>51.421309188004564</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+        <v>10.807841525746284</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9581214182573543</v>
+        <v>2.348568508234024</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4474547854450899</v>
+        <v>10.051558478177252</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.82950065256775</v>
+        <v>17.087099996767734</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0433054878794188</v>
+        <v>7.7267045473686213</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
@@ -2900,67 +2886,67 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.742815129237435</v>
+        <v>6.4345901462240285</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8094798723887626</v>
+        <v>5.0859495783055326</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+        <v>51.575849506494436</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.592726053716095</v>
+        <v>1.0486163054567208</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>10.196101533015971</v>
+        <v>4.9726072834123158</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+        <v>11.044810722894335</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.390221943518176</v>
+        <v>2.6128632765374591</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>13.261641145914997</v>
+        <v>14.680599200102174</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
@@ -2975,17 +2961,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1279344636749364</v>
+        <v>5.6113463439321976</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4922360076873886</v>
+        <v>13.41362580420676</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
@@ -3000,17 +2986,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.733439442898346</v>
+        <v>6.9925444284698841</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7362353149076926</v>
+        <v>0.61013805988904546</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
@@ -3022,20 +3008,20 @@
       </c>
       <c r="L24" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>10.477282932011112</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+        <v>50.115953703903308</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4558706647839992</v>
+        <v>3.0956773543269454</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0918529721949097</v>
+        <v>3.2715210084410811</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
@@ -3047,20 +3033,20 @@
       </c>
       <c r="L25" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>10.303265336968423</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
+        <v>16.126260298974838</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.108601194817759</v>
+        <v>3.7593173806452045</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>3.642520471199306</v>
+        <v>10.536053723528024</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
@@ -3075,17 +3061,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2439448416324073</v>
+        <v>16.3265774290346</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5076798677504</v>
+        <v>0.40706845170646988</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
@@ -3093,49 +3079,49 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>18.050648187789491</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.348559635782143</v>
+        <v>5.4315267293634033</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9311349171008296</v>
+        <v>1.7638124392929018</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+        <v>33.029107490374912</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.203379625995739</v>
+        <v>9.5820414782625232</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4036926426714196</v>
+        <v>8.4228954216703311</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
@@ -3150,17 +3136,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5172924396727314</v>
+        <v>17.331880750289923</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7020967060367882</v>
+        <v>0.96043611473609514</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
@@ -3175,42 +3161,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.220625103817618</v>
+        <v>1.1721281167707576</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>12.369802723117623</v>
+        <v>3.7255812735672023E-2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+        <v>1.4483959475959067</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2430093068106114</v>
+        <v>3.8958581095303786</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4606489133110401</v>
+        <v>6.4355647523652273</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
@@ -3222,45 +3208,45 @@
       </c>
       <c r="L32" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>21.438407190682323</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+        <v>28.04883991432407</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.752666537688714</v>
+        <v>3.1580694171047212</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1481165585682378</v>
+        <v>4.6156885492079649</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L33" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+        <v>19.204779541668081</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2147791075188135</v>
+        <v>4.5513229615033985</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>12.006189688110698</v>
+        <v>12.800251841148206</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
@@ -3268,78 +3254,78 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81872888776665931</v>
+        <v>10.792930416493412</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4754584160345381</v>
+        <v>10.562196220701461</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>13.621233823732707</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6058964733651919</v>
+        <v>2.1266266699197924</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>10.929061768125516</v>
+        <v>7.1673731439192334</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+        <v>18.857287281052614</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.543398256248999</v>
+        <v>10.391063438881224</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>11.18652335044275</v>
+        <v>2.1247601563397382</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
@@ -3350,92 +3336,92 @@
         <v>X</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2718083665547146</v>
+        <v>12.498370820589574</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6466299179318833</v>
+        <v>7.2007022840035342</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>16.454373090211767</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1955526770526674</v>
+        <v>4.8907548325288364</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>14.924094790329375</v>
+        <v>2.9640411328430516</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.3">
+        <v>29.84756509759027</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.735660299305781</v>
+        <v>1.3222978187612953</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2020326070127831</v>
+        <v>6.5731925572164744</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+        <v>14.894856635933827</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2921200388105563</v>
+        <v>6.2037163034966012</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1540000279352896</v>
+        <v>0.58001217562952567</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
@@ -3447,20 +3433,20 @@
       </c>
       <c r="L41" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>11.977574250566372</v>
-      </c>
-    </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
+        <v>39.646120325528585</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6050471580680954</v>
+        <v>0.97686113467783642</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72386543972576711</v>
+        <v>5.4094359987647254</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
@@ -3472,20 +3458,20 @@
       </c>
       <c r="L42" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>32.864284523618771</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+        <v>11.773129673973521</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.677520804272679</v>
+        <v>4.692471632659398</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>10.142637766276669</v>
+        <v>13.530314595010768</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
@@ -3500,42 +3486,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.204744825897933</v>
+        <v>2.3395824385809223</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>14.698031075012615</v>
+        <v>4.8623568156613945</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L44" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+        <v>15.198359618239044</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.888018928230569</v>
+        <v>16.964446784086554</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>4.949853124301872</v>
+        <v>2.2176452272915297</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
@@ -3550,67 +3536,67 @@
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.386875979375044</v>
+        <v>2.9049167060680929</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7667445297106921</v>
+        <v>11.386455392480626</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>32.551921876589219</v>
-      </c>
-    </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.760836186502662</v>
+        <v>5.6226702769701378</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3504383989468476</v>
+        <v>3.0346253462636392</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.3">
+        <v>37.683671736050727</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.794652489283319</v>
+        <v>3.8263893943658323</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7698402915787055</v>
+        <v>12.397846306746365</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
@@ -3625,67 +3611,67 @@
         <v>X</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7908479508962798</v>
+        <v>3.9116038359363854</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>11.412642370510415</v>
+        <v>0.10887178342954218</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.518388136171328</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.675230478405048</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.8775657122675611</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E50">
-        <v>49</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16866166645327557</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5669484085603571</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.16234357485151</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4230996916671295</v>
+        <v>9.7232012894194355</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3232566954982721</v>
+        <v>1.4653579557793261</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
@@ -3693,24 +3679,24 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="L51" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20.517925506753883</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.458751386411835</v>
+        <v>0.51041840547565664</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1455877961420979</v>
+        <v>12.211278750628946</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
@@ -3718,24 +3704,24 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7351163864691639</v>
+        <v>6.6650592552827073</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7408624893543383</v>
+        <v>6.497757378794236</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
@@ -3750,21 +3736,21 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.565655453222551</v>
+        <v>11.866344519621324</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6769939912137968</v>
+        <v>2.5500517674477905</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="3"/>
@@ -3775,92 +3761,92 @@
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7759606447768537</v>
+        <v>14.090488441660669</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4013542082410515</v>
+        <v>8.3254573780867851</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L55" s="13">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>50.716351076046863</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1224976359130112</v>
+        <v>15.022193458423274</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88804780212429102</v>
+        <v>2.736505253023866</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L56" s="13">
+        <v>0</v>
+      </c>
+      <c r="L56" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>28.01607763418297</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3434247697968695</v>
+        <v>1.5324744914492534</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0702273318709512</v>
+        <v>11.659351296296759</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>46.379492473814366</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1683609236046597</v>
+        <v>11.649052754617809</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7788728790605282</v>
+        <v>2.2263959875200174</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
@@ -3868,24 +3854,24 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L58" s="13">
+        <v>0</v>
+      </c>
+      <c r="L58" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12.92281300592739</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52454286959886132</v>
+        <v>13.711395849469994</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>12.271177213451375</v>
+        <v>2.1449154316647538</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
@@ -3893,24 +3879,24 @@
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5050051778436595</v>
+        <v>11.713954917214686</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1173341953627105</v>
+        <v>8.7626706352197647</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
@@ -3918,24 +3904,24 @@
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.898975888882937</v>
+        <v>0.93327377826201907</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4439023779191063</v>
+        <v>8.3264548743899685</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
@@ -3943,28 +3929,28 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>X</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.880753161753832</v>
+        <v>17.452237752439309</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35735644065547523</v>
+        <v>4.9743350170806284</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="3"/>
@@ -3975,17 +3961,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.756105529166499</v>
+        <v>9.1853686028209065</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>11.171332588040162</v>
+        <v>5.7588566865741919</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
@@ -4000,17 +3986,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.38696101407106</v>
+        <v>0.59157937806587979</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87753597305551601</v>
+        <v>6.0402148598275875</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
@@ -4018,24 +4004,24 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L64" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+        <v>12.430395880207989</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4044071840749135</v>
+        <v>10.013419954133246</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>11.113172007779806</v>
+        <v>5.2660074670735888</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
@@ -4050,17 +4036,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4418875909093707</v>
+        <v>6.860664181615399</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>9.392602977119985</v>
+        <v>14.248901813976394</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
@@ -4075,42 +4061,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" s="12">
         <f t="shared" ref="F67:F101" ca="1" si="5">RAND()*17.5</f>
-        <v>5.7037452970689957</v>
+        <v>5.0364309299437346</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="6">RAND()*15</f>
-        <v>3.0217005660592378</v>
+        <v>9.6054537516525809</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H101" ca="1" si="7">IF(2*F67+4*G67&lt;=35,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" ca="1" si="8">IF(3*F67+2*G67&lt;=30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L67" s="13">
+        <v>0</v>
+      </c>
+      <c r="L67" s="13" t="str">
         <f t="shared" ref="L67:L101" ca="1" si="9">IF(H67*I67=1,F67^2+2*G67,"X")</f>
-        <v>38.576111545955165</v>
-      </c>
-    </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>14.92939990180095</v>
+        <v>16.819908398735159</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>9.8673187960208217</v>
+        <v>5.7984398499194691</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="7"/>
@@ -4125,42 +4111,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>6.359189531620836</v>
+        <v>9.7515982695295573</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4958761300764134</v>
+        <v>8.6429483749922404</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>43.431043759228857</v>
-      </c>
-    </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6945300535935921</v>
+        <v>12.027398272683746</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>10.930181549065164</v>
+        <v>11.171022595641002</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="7"/>
@@ -4175,17 +4161,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.320349605000279</v>
+        <v>0.7246380091649216</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6197994758507543</v>
+        <v>3.182160948244936</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="7"/>
@@ -4197,20 +4183,20 @@
       </c>
       <c r="L71" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9829220311259013</v>
-      </c>
-    </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+        <v>6.8894221408163734</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4709384394431817</v>
+        <v>5.0416255090217685</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>12.178892989649366</v>
+        <v>14.168079348219102</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="7"/>
@@ -4225,17 +4211,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>15.149936610598525</v>
+        <v>6.7919167360113892</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8219702311477173</v>
+        <v>7.0738699032535459</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="7"/>
@@ -4250,17 +4236,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.720455259238486</v>
+        <v>4.023005427407095</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1494637362586553</v>
+        <v>2.3333481204337176</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="7"/>
@@ -4268,24 +4254,24 @@
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L74" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+        <v>20.851268909814376</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7809115546819303</v>
+        <v>8.3633971549098405</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5872167144366642</v>
+        <v>12.412443623625681</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="7"/>
@@ -4300,17 +4286,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>15.2589159878969</v>
+        <v>8.1296102904068341</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8606398912558237</v>
+        <v>7.5823250042783625</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="7"/>
@@ -4325,17 +4311,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>10.101778172189944</v>
+        <v>13.332035703701797</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0598171530420402</v>
+        <v>11.994363416506461</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="7"/>
@@ -4350,17 +4336,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>10.968207192932672</v>
+        <v>0.74423255820938006</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8734992244030431</v>
+        <v>12.041613845696334</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="7"/>
@@ -4368,49 +4354,49 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0958540728536805</v>
+        <v>14.019030716528658</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8101897352607139</v>
+        <v>0.21043268937179227</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.613600197679503</v>
+        <v>1.8871768949858057</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>8.1628687553778452</v>
+        <v>12.466891564177713</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="7"/>
@@ -4425,17 +4411,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51596254943329112</v>
+        <v>17.358201088359575</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>12.161636261289392</v>
+        <v>7.7946351583596254</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="7"/>
@@ -4443,28 +4429,28 @@
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.064789099647287</v>
+        <v>1.4550341528509003</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89414919764739476</v>
+        <v>13.241094226730018</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
@@ -4475,17 +4461,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.244725263340982</v>
+        <v>9.8340433180685736</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>10.147157063418073</v>
+        <v>4.9271112248459836</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="7"/>
@@ -4500,42 +4486,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.216823294491579</v>
+        <v>3.4422056426524454</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5054106080305312</v>
+        <v>4.8455221720812167</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L84" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+        <v>21.539824030470768</v>
+      </c>
+    </row>
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7146662872402743</v>
+        <v>16.862630328501524</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9148309373022894</v>
+        <v>6.9401317582934672</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="7"/>
@@ -4543,24 +4529,24 @@
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.764065937942787</v>
+        <v>12.939031936216983</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>13.807245007001743</v>
+        <v>7.1293157680216463</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="7"/>
@@ -4575,67 +4561,67 @@
         <v>X</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4263640504329942</v>
+        <v>3.9036416683296689</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3778425949015265</v>
+        <v>6.6569362629541047</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L87" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+        <v>28.552290800627851</v>
+      </c>
+    </row>
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>14.0973053588126</v>
+        <v>2.6418121748716294</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3287383279185967</v>
+        <v>1.7444817550914871</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L88" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+        <v>10.468135077482943</v>
+      </c>
+    </row>
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.718002326440212</v>
+        <v>17.301545576727474</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>10.202275973905911</v>
+        <v>0.86953784915759058</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="7"/>
@@ -4650,17 +4636,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9060999159675855</v>
+        <v>13.155830433930692</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>14.859683053388462</v>
+        <v>13.78531717154069</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="7"/>
@@ -4675,17 +4661,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2554502002019436</v>
+        <v>1.1045789545297133</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>11.597329862628778</v>
+        <v>11.93061276236709</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="7"/>
@@ -4693,74 +4679,74 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.781443145761159</v>
+        <v>7.1825286575248661</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2370569693374813</v>
+        <v>1.5854710229977342</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L92" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>54.759659962161422</v>
+      </c>
+    </row>
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>92</v>
+      </c>
+      <c r="F93" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.483311961793296</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.439682032228168</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E93">
-        <v>92</v>
-      </c>
-      <c r="F93" s="12">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.8965797875712913</v>
-      </c>
-      <c r="G93">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1298359405252061</v>
-      </c>
-      <c r="H93">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L93" s="13">
-        <f t="shared" ca="1" si="9"/>
-        <v>21.443005921959539</v>
-      </c>
-    </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8981277648654959</v>
+        <v>14.613863074619005</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>10.99202244962262</v>
+        <v>10.849701589975162</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="7"/>
@@ -4775,42 +4761,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86056569189825793</v>
+        <v>13.200513413268105</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9633624884656999</v>
+        <v>3.4077361968438797</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>12.667298287003728</v>
-      </c>
-    </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.11154787986321</v>
+        <v>5.0682914742233534</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>10.802678051718456</v>
+        <v>14.557604881087181</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="7"/>
@@ -4825,42 +4811,42 @@
         <v>X</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.296066306466825</v>
+        <v>1.5855033457444838</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="6"/>
-        <v>14.525536717624126</v>
+        <v>7.0256712580184075</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L97" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.3">
+        <v>16.565163375403767</v>
+      </c>
+    </row>
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>15.787395278957087</v>
+        <v>9.1187204170403966</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0629840477258945</v>
+        <v>14.046901188087149</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="7"/>
@@ -4875,17 +4861,17 @@
         <v>X</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1595584655409761</v>
+        <v>11.567710919590956</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1972332461546156</v>
+        <v>8.7717794830633142</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="7"/>
@@ -4893,2660 +4879,2660 @@
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.070793849837315</v>
+        <v>8.7840279719977499</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="6"/>
-        <v>10.967908641792262</v>
+        <v>1.4694776845394402</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L100" s="13">
+        <f t="shared" ca="1" si="9"/>
+        <v>80.098102781917788</v>
+      </c>
+    </row>
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>16.379872221738001</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="6"/>
+        <v>14.215072816015123</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>X</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E101">
-        <v>100</v>
-      </c>
-      <c r="F101" s="12">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.9172621267829626</v>
-      </c>
-      <c r="G101">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.2495365611545139</v>
-      </c>
-      <c r="H101">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L101" s="13">
-        <f t="shared" ca="1" si="9"/>
-        <v>12.174967185105357</v>
-      </c>
-    </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F102" s="12"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F103" s="12"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F104" s="12"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F105" s="12"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F106" s="12"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F107" s="12"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F108" s="12"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F109" s="12"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F110" s="12"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F111" s="12"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F112" s="12"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F113" s="12"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F114" s="12"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F115" s="12"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F116" s="12"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F117" s="12"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F118" s="12"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F119" s="12"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F120" s="12"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F121" s="12"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F122" s="12"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F123" s="12"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F124" s="12"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F125" s="12"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F126" s="12"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F127" s="12"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F128" s="12"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F129" s="12"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F130" s="12"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F131" s="12"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F132" s="12"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F133" s="12"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F134" s="12"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F135" s="12"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F136" s="12"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F137" s="12"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F138" s="12"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F139" s="12"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F140" s="12"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F141" s="12"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F142" s="12"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F143" s="12"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F144" s="12"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" s="12"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F146" s="12"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F147" s="12"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F148" s="12"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F149" s="12"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F150" s="12"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F151" s="12"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F152" s="12"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F153" s="12"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F154" s="12"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F155" s="12"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F156" s="12"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F157" s="12"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F158" s="12"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F159" s="12"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F160" s="12"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F161" s="12"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F162" s="12"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F163" s="12"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F164" s="12"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F165" s="12"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F166" s="12"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F167" s="12"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F168" s="12"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F169" s="12"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F170" s="12"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F171" s="12"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F172" s="12"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F173" s="12"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F174" s="12"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F175" s="12"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F176" s="12"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F177" s="12"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F178" s="12"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F179" s="12"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F180" s="12"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F181" s="12"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F182" s="12"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F183" s="12"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F184" s="12"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F185" s="12"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F186" s="12"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F187" s="12"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F188" s="12"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F189" s="12"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F190" s="12"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F191" s="12"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F192" s="12"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F193" s="12"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F194" s="12"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F195" s="12"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F196" s="12"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F197" s="12"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F198" s="12"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F199" s="12"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F200" s="12"/>
       <c r="L200" s="13"/>
     </row>
-    <row r="201" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F201" s="12"/>
       <c r="L201" s="13"/>
     </row>
-    <row r="202" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F202" s="12"/>
       <c r="L202" s="13"/>
     </row>
-    <row r="203" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F203" s="12"/>
       <c r="L203" s="13"/>
     </row>
-    <row r="204" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F204" s="12"/>
       <c r="L204" s="13"/>
     </row>
-    <row r="205" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F205" s="12"/>
       <c r="L205" s="13"/>
     </row>
-    <row r="206" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F206" s="12"/>
       <c r="L206" s="13"/>
     </row>
-    <row r="207" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F207" s="12"/>
       <c r="L207" s="13"/>
     </row>
-    <row r="208" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F208" s="12"/>
       <c r="L208" s="13"/>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F209" s="12"/>
       <c r="L209" s="13"/>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F210" s="12"/>
       <c r="L210" s="13"/>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F211" s="12"/>
       <c r="L211" s="13"/>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F212" s="12"/>
       <c r="L212" s="13"/>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F213" s="12"/>
       <c r="L213" s="13"/>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F214" s="12"/>
       <c r="L214" s="13"/>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F215" s="12"/>
       <c r="L215" s="13"/>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F216" s="12"/>
       <c r="L216" s="13"/>
     </row>
-    <row r="217" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F217" s="12"/>
       <c r="L217" s="13"/>
     </row>
-    <row r="218" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F218" s="12"/>
       <c r="L218" s="13"/>
     </row>
-    <row r="219" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F219" s="12"/>
       <c r="L219" s="13"/>
     </row>
-    <row r="220" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F220" s="12"/>
       <c r="L220" s="13"/>
     </row>
-    <row r="221" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F221" s="12"/>
       <c r="L221" s="13"/>
     </row>
-    <row r="222" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F222" s="12"/>
       <c r="L222" s="13"/>
     </row>
-    <row r="223" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F223" s="12"/>
       <c r="L223" s="13"/>
     </row>
-    <row r="224" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F224" s="12"/>
       <c r="L224" s="13"/>
     </row>
-    <row r="225" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F225" s="12"/>
       <c r="L225" s="13"/>
     </row>
-    <row r="226" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F226" s="12"/>
       <c r="L226" s="13"/>
     </row>
-    <row r="227" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F227" s="12"/>
       <c r="L227" s="13"/>
     </row>
-    <row r="228" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F228" s="12"/>
       <c r="L228" s="13"/>
     </row>
-    <row r="229" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F229" s="12"/>
       <c r="L229" s="13"/>
     </row>
-    <row r="230" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F230" s="12"/>
       <c r="L230" s="13"/>
     </row>
-    <row r="231" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F231" s="12"/>
       <c r="L231" s="13"/>
     </row>
-    <row r="232" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F232" s="12"/>
       <c r="L232" s="13"/>
     </row>
-    <row r="233" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F233" s="12"/>
       <c r="L233" s="13"/>
     </row>
-    <row r="234" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F234" s="12"/>
       <c r="L234" s="13"/>
     </row>
-    <row r="235" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F235" s="12"/>
       <c r="L235" s="13"/>
     </row>
-    <row r="236" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F236" s="12"/>
       <c r="L236" s="13"/>
     </row>
-    <row r="237" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F237" s="12"/>
       <c r="L237" s="13"/>
     </row>
-    <row r="238" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F238" s="12"/>
       <c r="L238" s="13"/>
     </row>
-    <row r="239" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F239" s="12"/>
       <c r="L239" s="13"/>
     </row>
-    <row r="240" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F240" s="12"/>
       <c r="L240" s="13"/>
     </row>
-    <row r="241" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F241" s="12"/>
       <c r="L241" s="13"/>
     </row>
-    <row r="242" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F242" s="12"/>
       <c r="L242" s="13"/>
     </row>
-    <row r="243" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F243" s="12"/>
       <c r="L243" s="13"/>
     </row>
-    <row r="244" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F244" s="12"/>
       <c r="L244" s="13"/>
     </row>
-    <row r="245" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F245" s="12"/>
       <c r="L245" s="13"/>
     </row>
-    <row r="246" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F246" s="12"/>
       <c r="L246" s="13"/>
     </row>
-    <row r="247" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F247" s="12"/>
       <c r="L247" s="13"/>
     </row>
-    <row r="248" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F248" s="12"/>
       <c r="L248" s="13"/>
     </row>
-    <row r="249" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F249" s="12"/>
       <c r="L249" s="13"/>
     </row>
-    <row r="250" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F250" s="12"/>
       <c r="L250" s="13"/>
     </row>
-    <row r="251" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F251" s="12"/>
       <c r="L251" s="13"/>
     </row>
-    <row r="252" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F252" s="12"/>
       <c r="L252" s="13"/>
     </row>
-    <row r="253" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F253" s="12"/>
       <c r="L253" s="13"/>
     </row>
-    <row r="254" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F254" s="12"/>
       <c r="L254" s="13"/>
     </row>
-    <row r="255" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F255" s="12"/>
       <c r="L255" s="13"/>
     </row>
-    <row r="256" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F256" s="12"/>
       <c r="L256" s="13"/>
     </row>
-    <row r="257" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F257" s="12"/>
       <c r="L257" s="13"/>
     </row>
-    <row r="258" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F258" s="12"/>
       <c r="L258" s="13"/>
     </row>
-    <row r="259" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F259" s="12"/>
       <c r="L259" s="13"/>
     </row>
-    <row r="260" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F260" s="12"/>
       <c r="L260" s="13"/>
     </row>
-    <row r="261" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F261" s="12"/>
       <c r="L261" s="13"/>
     </row>
-    <row r="262" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F262" s="12"/>
       <c r="L262" s="13"/>
     </row>
-    <row r="263" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F263" s="12"/>
       <c r="L263" s="13"/>
     </row>
-    <row r="264" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F264" s="12"/>
       <c r="L264" s="13"/>
     </row>
-    <row r="265" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F265" s="12"/>
       <c r="L265" s="13"/>
     </row>
-    <row r="266" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F266" s="12"/>
       <c r="L266" s="13"/>
     </row>
-    <row r="267" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F267" s="12"/>
       <c r="L267" s="13"/>
     </row>
-    <row r="268" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F268" s="12"/>
       <c r="L268" s="13"/>
     </row>
-    <row r="269" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F269" s="12"/>
       <c r="L269" s="13"/>
     </row>
-    <row r="270" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F270" s="12"/>
       <c r="L270" s="13"/>
     </row>
-    <row r="271" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F271" s="12"/>
       <c r="L271" s="13"/>
     </row>
-    <row r="272" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F272" s="12"/>
       <c r="L272" s="13"/>
     </row>
-    <row r="273" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F273" s="12"/>
       <c r="L273" s="13"/>
     </row>
-    <row r="274" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F274" s="12"/>
       <c r="L274" s="13"/>
     </row>
-    <row r="275" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F275" s="12"/>
       <c r="L275" s="13"/>
     </row>
-    <row r="276" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F276" s="12"/>
       <c r="L276" s="13"/>
     </row>
-    <row r="277" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F277" s="12"/>
       <c r="L277" s="13"/>
     </row>
-    <row r="278" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F278" s="12"/>
       <c r="L278" s="13"/>
     </row>
-    <row r="279" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F279" s="12"/>
       <c r="L279" s="13"/>
     </row>
-    <row r="280" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F280" s="12"/>
       <c r="L280" s="13"/>
     </row>
-    <row r="281" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F281" s="12"/>
       <c r="L281" s="13"/>
     </row>
-    <row r="282" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F282" s="12"/>
       <c r="L282" s="13"/>
     </row>
-    <row r="283" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F283" s="12"/>
       <c r="L283" s="13"/>
     </row>
-    <row r="284" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F284" s="12"/>
       <c r="L284" s="13"/>
     </row>
-    <row r="285" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F285" s="12"/>
       <c r="L285" s="13"/>
     </row>
-    <row r="286" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F286" s="12"/>
       <c r="L286" s="13"/>
     </row>
-    <row r="287" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F287" s="12"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F288" s="12"/>
       <c r="L288" s="13"/>
     </row>
-    <row r="289" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F289" s="12"/>
       <c r="L289" s="13"/>
     </row>
-    <row r="290" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F290" s="12"/>
       <c r="L290" s="13"/>
     </row>
-    <row r="291" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F291" s="12"/>
       <c r="L291" s="13"/>
     </row>
-    <row r="292" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F292" s="12"/>
       <c r="L292" s="13"/>
     </row>
-    <row r="293" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F293" s="12"/>
       <c r="L293" s="13"/>
     </row>
-    <row r="294" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F294" s="12"/>
       <c r="L294" s="13"/>
     </row>
-    <row r="295" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F295" s="12"/>
       <c r="L295" s="13"/>
     </row>
-    <row r="296" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F296" s="12"/>
       <c r="L296" s="13"/>
     </row>
-    <row r="297" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F297" s="12"/>
       <c r="L297" s="13"/>
     </row>
-    <row r="298" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F298" s="12"/>
       <c r="L298" s="13"/>
     </row>
-    <row r="299" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F299" s="12"/>
       <c r="L299" s="13"/>
     </row>
-    <row r="300" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F300" s="12"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F301" s="12"/>
       <c r="L301" s="13"/>
     </row>
-    <row r="302" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F302" s="12"/>
       <c r="L302" s="13"/>
     </row>
-    <row r="303" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F303" s="12"/>
       <c r="L303" s="13"/>
     </row>
-    <row r="304" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F304" s="12"/>
       <c r="L304" s="13"/>
     </row>
-    <row r="305" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F305" s="12"/>
       <c r="L305" s="13"/>
     </row>
-    <row r="306" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F306" s="12"/>
       <c r="L306" s="13"/>
     </row>
-    <row r="307" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F307" s="12"/>
       <c r="L307" s="13"/>
     </row>
-    <row r="308" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F308" s="12"/>
       <c r="L308" s="13"/>
     </row>
-    <row r="309" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F309" s="12"/>
       <c r="L309" s="13"/>
     </row>
-    <row r="310" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F310" s="12"/>
       <c r="L310" s="13"/>
     </row>
-    <row r="311" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F311" s="12"/>
       <c r="L311" s="13"/>
     </row>
-    <row r="312" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F312" s="12"/>
       <c r="L312" s="13"/>
     </row>
-    <row r="313" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F313" s="12"/>
       <c r="L313" s="13"/>
     </row>
-    <row r="314" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F314" s="12"/>
       <c r="L314" s="13"/>
     </row>
-    <row r="315" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F315" s="12"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F316" s="12"/>
       <c r="L316" s="13"/>
     </row>
-    <row r="317" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F317" s="12"/>
       <c r="L317" s="13"/>
     </row>
-    <row r="318" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F318" s="12"/>
       <c r="L318" s="13"/>
     </row>
-    <row r="319" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F319" s="12"/>
       <c r="L319" s="13"/>
     </row>
-    <row r="320" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F320" s="12"/>
       <c r="L320" s="13"/>
     </row>
-    <row r="321" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F321" s="12"/>
       <c r="L321" s="13"/>
     </row>
-    <row r="322" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F322" s="12"/>
       <c r="L322" s="13"/>
     </row>
-    <row r="323" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F323" s="12"/>
       <c r="L323" s="13"/>
     </row>
-    <row r="324" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F324" s="12"/>
       <c r="L324" s="13"/>
     </row>
-    <row r="325" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F325" s="12"/>
       <c r="L325" s="13"/>
     </row>
-    <row r="326" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F326" s="12"/>
       <c r="L326" s="13"/>
     </row>
-    <row r="327" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F327" s="12"/>
       <c r="L327" s="13"/>
     </row>
-    <row r="328" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F328" s="12"/>
       <c r="L328" s="13"/>
     </row>
-    <row r="329" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F329" s="12"/>
       <c r="L329" s="13"/>
     </row>
-    <row r="330" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F330" s="12"/>
       <c r="L330" s="13"/>
     </row>
-    <row r="331" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F331" s="12"/>
       <c r="L331" s="13"/>
     </row>
-    <row r="332" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F332" s="12"/>
       <c r="L332" s="13"/>
     </row>
-    <row r="333" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F333" s="12"/>
       <c r="L333" s="13"/>
     </row>
-    <row r="334" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F334" s="12"/>
       <c r="L334" s="13"/>
     </row>
-    <row r="335" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F335" s="12"/>
       <c r="L335" s="13"/>
     </row>
-    <row r="336" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F336" s="12"/>
       <c r="L336" s="13"/>
     </row>
-    <row r="337" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F337" s="12"/>
       <c r="L337" s="13"/>
     </row>
-    <row r="338" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F338" s="12"/>
       <c r="L338" s="13"/>
     </row>
-    <row r="339" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F339" s="12"/>
       <c r="L339" s="13"/>
     </row>
-    <row r="340" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F340" s="12"/>
       <c r="L340" s="13"/>
     </row>
-    <row r="341" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F341" s="12"/>
       <c r="L341" s="13"/>
     </row>
-    <row r="342" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F342" s="12"/>
       <c r="L342" s="13"/>
     </row>
-    <row r="343" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F343" s="12"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F344" s="12"/>
       <c r="L344" s="13"/>
     </row>
-    <row r="345" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F345" s="12"/>
       <c r="L345" s="13"/>
     </row>
-    <row r="346" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F346" s="12"/>
       <c r="L346" s="13"/>
     </row>
-    <row r="347" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F347" s="12"/>
       <c r="L347" s="13"/>
     </row>
-    <row r="348" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F348" s="12"/>
       <c r="L348" s="13"/>
     </row>
-    <row r="349" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F349" s="12"/>
       <c r="L349" s="13"/>
     </row>
-    <row r="350" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F350" s="12"/>
       <c r="L350" s="13"/>
     </row>
-    <row r="351" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F351" s="12"/>
       <c r="L351" s="13"/>
     </row>
-    <row r="352" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F352" s="12"/>
       <c r="L352" s="13"/>
     </row>
-    <row r="353" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F353" s="12"/>
       <c r="L353" s="13"/>
     </row>
-    <row r="354" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F354" s="12"/>
       <c r="L354" s="13"/>
     </row>
-    <row r="355" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F355" s="12"/>
       <c r="L355" s="13"/>
     </row>
-    <row r="356" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F356" s="12"/>
       <c r="L356" s="13"/>
     </row>
-    <row r="357" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F357" s="12"/>
       <c r="L357" s="13"/>
     </row>
-    <row r="358" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F358" s="12"/>
       <c r="L358" s="13"/>
     </row>
-    <row r="359" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F359" s="12"/>
       <c r="L359" s="13"/>
     </row>
-    <row r="360" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F360" s="12"/>
       <c r="L360" s="13"/>
     </row>
-    <row r="361" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F361" s="12"/>
       <c r="L361" s="13"/>
     </row>
-    <row r="362" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F362" s="12"/>
       <c r="L362" s="13"/>
     </row>
-    <row r="363" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F363" s="12"/>
       <c r="L363" s="13"/>
     </row>
-    <row r="364" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F364" s="12"/>
       <c r="L364" s="13"/>
     </row>
-    <row r="365" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F365" s="12"/>
       <c r="L365" s="13"/>
     </row>
-    <row r="366" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F366" s="12"/>
       <c r="L366" s="13"/>
     </row>
-    <row r="367" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F367" s="12"/>
       <c r="L367" s="13"/>
     </row>
-    <row r="368" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F368" s="12"/>
       <c r="L368" s="13"/>
     </row>
-    <row r="369" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F369" s="12"/>
       <c r="L369" s="13"/>
     </row>
-    <row r="370" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F370" s="12"/>
       <c r="L370" s="13"/>
     </row>
-    <row r="371" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F371" s="12"/>
       <c r="L371" s="13"/>
     </row>
-    <row r="372" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F372" s="12"/>
       <c r="L372" s="13"/>
     </row>
-    <row r="373" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F373" s="12"/>
       <c r="L373" s="13"/>
     </row>
-    <row r="374" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F374" s="12"/>
       <c r="L374" s="13"/>
     </row>
-    <row r="375" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F375" s="12"/>
       <c r="L375" s="13"/>
     </row>
-    <row r="376" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F376" s="12"/>
       <c r="L376" s="13"/>
     </row>
-    <row r="377" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F377" s="12"/>
       <c r="L377" s="13"/>
     </row>
-    <row r="378" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F378" s="12"/>
       <c r="L378" s="13"/>
     </row>
-    <row r="379" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F379" s="12"/>
       <c r="L379" s="13"/>
     </row>
-    <row r="380" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F380" s="12"/>
       <c r="L380" s="13"/>
     </row>
-    <row r="381" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F381" s="12"/>
       <c r="L381" s="13"/>
     </row>
-    <row r="382" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F382" s="12"/>
       <c r="L382" s="13"/>
     </row>
-    <row r="383" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F383" s="12"/>
       <c r="L383" s="13"/>
     </row>
-    <row r="384" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F384" s="12"/>
       <c r="L384" s="13"/>
     </row>
-    <row r="385" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F385" s="12"/>
       <c r="L385" s="13"/>
     </row>
-    <row r="386" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F386" s="12"/>
       <c r="L386" s="13"/>
     </row>
-    <row r="387" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F387" s="12"/>
       <c r="L387" s="13"/>
     </row>
-    <row r="388" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F388" s="12"/>
       <c r="L388" s="13"/>
     </row>
-    <row r="389" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F389" s="12"/>
       <c r="L389" s="13"/>
     </row>
-    <row r="390" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F390" s="12"/>
       <c r="L390" s="13"/>
     </row>
-    <row r="391" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F391" s="12"/>
       <c r="L391" s="13"/>
     </row>
-    <row r="392" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F392" s="12"/>
       <c r="L392" s="13"/>
     </row>
-    <row r="393" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F393" s="12"/>
       <c r="L393" s="13"/>
     </row>
-    <row r="394" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F394" s="12"/>
       <c r="L394" s="13"/>
     </row>
-    <row r="395" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F395" s="12"/>
       <c r="L395" s="13"/>
     </row>
-    <row r="396" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F396" s="12"/>
       <c r="L396" s="13"/>
     </row>
-    <row r="397" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F397" s="12"/>
       <c r="L397" s="13"/>
     </row>
-    <row r="398" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F398" s="12"/>
       <c r="L398" s="13"/>
     </row>
-    <row r="399" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F399" s="12"/>
       <c r="L399" s="13"/>
     </row>
-    <row r="400" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F400" s="12"/>
       <c r="L400" s="13"/>
     </row>
-    <row r="401" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F401" s="12"/>
       <c r="L401" s="13"/>
     </row>
-    <row r="402" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F402" s="12"/>
       <c r="L402" s="13"/>
     </row>
-    <row r="403" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F403" s="12"/>
       <c r="L403" s="13"/>
     </row>
-    <row r="404" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F404" s="12"/>
       <c r="L404" s="13"/>
     </row>
-    <row r="405" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F405" s="12"/>
       <c r="L405" s="13"/>
     </row>
-    <row r="406" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F406" s="12"/>
       <c r="L406" s="13"/>
     </row>
-    <row r="407" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F407" s="12"/>
       <c r="L407" s="13"/>
     </row>
-    <row r="408" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F408" s="12"/>
       <c r="L408" s="13"/>
     </row>
-    <row r="409" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F409" s="12"/>
       <c r="L409" s="13"/>
     </row>
-    <row r="410" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F410" s="12"/>
       <c r="L410" s="13"/>
     </row>
-    <row r="411" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F411" s="12"/>
       <c r="L411" s="13"/>
     </row>
-    <row r="412" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F412" s="12"/>
       <c r="L412" s="13"/>
     </row>
-    <row r="413" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F413" s="12"/>
       <c r="L413" s="13"/>
     </row>
-    <row r="414" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F414" s="12"/>
       <c r="L414" s="13"/>
     </row>
-    <row r="415" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F415" s="12"/>
       <c r="L415" s="13"/>
     </row>
-    <row r="416" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F416" s="12"/>
       <c r="L416" s="13"/>
     </row>
-    <row r="417" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F417" s="12"/>
       <c r="L417" s="13"/>
     </row>
-    <row r="418" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F418" s="12"/>
       <c r="L418" s="13"/>
     </row>
-    <row r="419" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F419" s="12"/>
       <c r="L419" s="13"/>
     </row>
-    <row r="420" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F420" s="12"/>
       <c r="L420" s="13"/>
     </row>
-    <row r="421" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F421" s="12"/>
       <c r="L421" s="13"/>
     </row>
-    <row r="422" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F422" s="12"/>
       <c r="L422" s="13"/>
     </row>
-    <row r="423" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F423" s="12"/>
       <c r="L423" s="13"/>
     </row>
-    <row r="424" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F424" s="12"/>
       <c r="L424" s="13"/>
     </row>
-    <row r="425" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F425" s="12"/>
       <c r="L425" s="13"/>
     </row>
-    <row r="426" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F426" s="12"/>
       <c r="L426" s="13"/>
     </row>
-    <row r="427" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F427" s="12"/>
       <c r="L427" s="13"/>
     </row>
-    <row r="428" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F428" s="12"/>
       <c r="L428" s="13"/>
     </row>
-    <row r="429" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F429" s="12"/>
       <c r="L429" s="13"/>
     </row>
-    <row r="430" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F430" s="12"/>
       <c r="L430" s="13"/>
     </row>
-    <row r="431" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F431" s="12"/>
       <c r="L431" s="13"/>
     </row>
-    <row r="432" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F432" s="12"/>
       <c r="L432" s="13"/>
     </row>
-    <row r="433" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F433" s="12"/>
       <c r="L433" s="13"/>
     </row>
-    <row r="434" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F434" s="12"/>
       <c r="L434" s="13"/>
     </row>
-    <row r="435" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F435" s="12"/>
       <c r="L435" s="13"/>
     </row>
-    <row r="436" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F436" s="12"/>
       <c r="L436" s="13"/>
     </row>
-    <row r="437" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F437" s="12"/>
       <c r="L437" s="13"/>
     </row>
-    <row r="438" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F438" s="12"/>
       <c r="L438" s="13"/>
     </row>
-    <row r="439" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F439" s="12"/>
       <c r="L439" s="13"/>
     </row>
-    <row r="440" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F440" s="12"/>
       <c r="L440" s="13"/>
     </row>
-    <row r="441" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F441" s="12"/>
       <c r="L441" s="13"/>
     </row>
-    <row r="442" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F442" s="12"/>
       <c r="L442" s="13"/>
     </row>
-    <row r="443" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F443" s="12"/>
       <c r="L443" s="13"/>
     </row>
-    <row r="444" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F444" s="12"/>
       <c r="L444" s="13"/>
     </row>
-    <row r="445" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F445" s="12"/>
       <c r="L445" s="13"/>
     </row>
-    <row r="446" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F446" s="12"/>
       <c r="L446" s="13"/>
     </row>
-    <row r="447" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F447" s="12"/>
       <c r="L447" s="13"/>
     </row>
-    <row r="448" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F448" s="12"/>
       <c r="L448" s="13"/>
     </row>
-    <row r="449" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F449" s="12"/>
       <c r="L449" s="13"/>
     </row>
-    <row r="450" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F450" s="12"/>
       <c r="L450" s="13"/>
     </row>
-    <row r="451" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F451" s="12"/>
       <c r="L451" s="13"/>
     </row>
-    <row r="452" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F452" s="12"/>
       <c r="L452" s="13"/>
     </row>
-    <row r="453" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F453" s="12"/>
       <c r="L453" s="13"/>
     </row>
-    <row r="454" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F454" s="12"/>
       <c r="L454" s="13"/>
     </row>
-    <row r="455" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F455" s="12"/>
       <c r="L455" s="13"/>
     </row>
-    <row r="456" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F456" s="12"/>
       <c r="L456" s="13"/>
     </row>
-    <row r="457" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F457" s="12"/>
       <c r="L457" s="13"/>
     </row>
-    <row r="458" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F458" s="12"/>
       <c r="L458" s="13"/>
     </row>
-    <row r="459" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F459" s="12"/>
       <c r="L459" s="13"/>
     </row>
-    <row r="460" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F460" s="12"/>
       <c r="L460" s="13"/>
     </row>
-    <row r="461" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F461" s="12"/>
       <c r="L461" s="13"/>
     </row>
-    <row r="462" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F462" s="12"/>
       <c r="L462" s="13"/>
     </row>
-    <row r="463" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F463" s="12"/>
       <c r="L463" s="13"/>
     </row>
-    <row r="464" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F464" s="12"/>
       <c r="L464" s="13"/>
     </row>
-    <row r="465" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F465" s="12"/>
       <c r="L465" s="13"/>
     </row>
-    <row r="466" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F466" s="12"/>
       <c r="L466" s="13"/>
     </row>
-    <row r="467" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F467" s="12"/>
       <c r="L467" s="13"/>
     </row>
-    <row r="468" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F468" s="12"/>
       <c r="L468" s="13"/>
     </row>
-    <row r="469" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F469" s="12"/>
       <c r="L469" s="13"/>
     </row>
-    <row r="470" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F470" s="12"/>
       <c r="L470" s="13"/>
     </row>
-    <row r="471" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F471" s="12"/>
       <c r="L471" s="13"/>
     </row>
-    <row r="472" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F472" s="12"/>
       <c r="L472" s="13"/>
     </row>
-    <row r="473" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F473" s="12"/>
       <c r="L473" s="13"/>
     </row>
-    <row r="474" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F474" s="12"/>
       <c r="L474" s="13"/>
     </row>
-    <row r="475" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F475" s="12"/>
       <c r="L475" s="13"/>
     </row>
-    <row r="476" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F476" s="12"/>
       <c r="L476" s="13"/>
     </row>
-    <row r="477" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F477" s="12"/>
       <c r="L477" s="13"/>
     </row>
-    <row r="478" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F478" s="12"/>
       <c r="L478" s="13"/>
     </row>
-    <row r="479" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F479" s="12"/>
       <c r="L479" s="13"/>
     </row>
-    <row r="480" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F480" s="12"/>
       <c r="L480" s="13"/>
     </row>
-    <row r="481" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F481" s="12"/>
       <c r="L481" s="13"/>
     </row>
-    <row r="482" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F482" s="12"/>
       <c r="L482" s="13"/>
     </row>
-    <row r="483" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F483" s="12"/>
       <c r="L483" s="13"/>
     </row>
-    <row r="484" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F484" s="12"/>
       <c r="L484" s="13"/>
     </row>
-    <row r="485" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F485" s="12"/>
       <c r="L485" s="13"/>
     </row>
-    <row r="486" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F486" s="12"/>
       <c r="L486" s="13"/>
     </row>
-    <row r="487" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F487" s="12"/>
       <c r="L487" s="13"/>
     </row>
-    <row r="488" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F488" s="12"/>
       <c r="L488" s="13"/>
     </row>
-    <row r="489" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F489" s="12"/>
       <c r="L489" s="13"/>
     </row>
-    <row r="490" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F490" s="12"/>
       <c r="L490" s="13"/>
     </row>
-    <row r="491" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F491" s="12"/>
       <c r="L491" s="13"/>
     </row>
-    <row r="492" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F492" s="12"/>
       <c r="L492" s="13"/>
     </row>
-    <row r="493" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F493" s="12"/>
       <c r="L493" s="13"/>
     </row>
-    <row r="494" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F494" s="12"/>
       <c r="L494" s="13"/>
     </row>
-    <row r="495" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F495" s="12"/>
       <c r="L495" s="13"/>
     </row>
-    <row r="496" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F496" s="12"/>
       <c r="L496" s="13"/>
     </row>
-    <row r="497" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F497" s="12"/>
       <c r="L497" s="13"/>
     </row>
-    <row r="498" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F498" s="12"/>
       <c r="L498" s="13"/>
     </row>
-    <row r="499" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F499" s="12"/>
       <c r="L499" s="13"/>
     </row>
-    <row r="500" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F500" s="12"/>
       <c r="L500" s="13"/>
     </row>
-    <row r="501" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F501" s="12"/>
       <c r="L501" s="13"/>
     </row>
-    <row r="502" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F502" s="12"/>
       <c r="L502" s="13"/>
     </row>
-    <row r="503" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F503" s="12"/>
       <c r="L503" s="13"/>
     </row>
-    <row r="504" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F504" s="12"/>
       <c r="L504" s="13"/>
     </row>
-    <row r="505" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F505" s="12"/>
       <c r="L505" s="13"/>
     </row>
-    <row r="506" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F506" s="12"/>
       <c r="L506" s="13"/>
     </row>
-    <row r="507" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F507" s="12"/>
       <c r="L507" s="13"/>
     </row>
-    <row r="508" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F508" s="12"/>
       <c r="L508" s="13"/>
     </row>
-    <row r="509" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F509" s="12"/>
       <c r="L509" s="13"/>
     </row>
-    <row r="510" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F510" s="12"/>
       <c r="L510" s="13"/>
     </row>
-    <row r="511" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F511" s="12"/>
       <c r="L511" s="13"/>
     </row>
-    <row r="512" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F512" s="12"/>
       <c r="L512" s="13"/>
     </row>
-    <row r="513" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F513" s="12"/>
       <c r="L513" s="13"/>
     </row>
-    <row r="514" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F514" s="12"/>
       <c r="L514" s="13"/>
     </row>
-    <row r="515" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F515" s="12"/>
       <c r="L515" s="13"/>
     </row>
-    <row r="516" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F516" s="12"/>
       <c r="L516" s="13"/>
     </row>
-    <row r="517" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F517" s="12"/>
       <c r="L517" s="13"/>
     </row>
-    <row r="518" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F518" s="12"/>
       <c r="L518" s="13"/>
     </row>
-    <row r="519" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F519" s="12"/>
       <c r="L519" s="13"/>
     </row>
-    <row r="520" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F520" s="12"/>
       <c r="L520" s="13"/>
     </row>
-    <row r="521" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F521" s="12"/>
       <c r="L521" s="13"/>
     </row>
-    <row r="522" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F522" s="12"/>
       <c r="L522" s="13"/>
     </row>
-    <row r="523" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F523" s="12"/>
       <c r="L523" s="13"/>
     </row>
-    <row r="524" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F524" s="12"/>
       <c r="L524" s="13"/>
     </row>
-    <row r="525" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F525" s="12"/>
       <c r="L525" s="13"/>
     </row>
-    <row r="526" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F526" s="12"/>
       <c r="L526" s="13"/>
     </row>
-    <row r="527" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F527" s="12"/>
       <c r="L527" s="13"/>
     </row>
-    <row r="528" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F528" s="12"/>
       <c r="L528" s="13"/>
     </row>
-    <row r="529" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F529" s="12"/>
       <c r="L529" s="13"/>
     </row>
-    <row r="530" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F530" s="12"/>
       <c r="L530" s="13"/>
     </row>
-    <row r="531" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F531" s="12"/>
       <c r="L531" s="13"/>
     </row>
-    <row r="532" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F532" s="12"/>
       <c r="L532" s="13"/>
     </row>
-    <row r="533" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F533" s="12"/>
       <c r="L533" s="13"/>
     </row>
-    <row r="534" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F534" s="12"/>
       <c r="L534" s="13"/>
     </row>
-    <row r="535" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F535" s="12"/>
       <c r="L535" s="13"/>
     </row>
-    <row r="536" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F536" s="12"/>
       <c r="L536" s="13"/>
     </row>
-    <row r="537" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F537" s="12"/>
       <c r="L537" s="13"/>
     </row>
-    <row r="538" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F538" s="12"/>
       <c r="L538" s="13"/>
     </row>
-    <row r="539" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F539" s="12"/>
       <c r="L539" s="13"/>
     </row>
-    <row r="540" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F540" s="12"/>
       <c r="L540" s="13"/>
     </row>
-    <row r="541" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F541" s="12"/>
       <c r="L541" s="13"/>
     </row>
-    <row r="542" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F542" s="12"/>
       <c r="L542" s="13"/>
     </row>
-    <row r="543" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F543" s="12"/>
       <c r="L543" s="13"/>
     </row>
-    <row r="544" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F544" s="12"/>
       <c r="L544" s="13"/>
     </row>
-    <row r="545" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F545" s="12"/>
       <c r="L545" s="13"/>
     </row>
-    <row r="546" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F546" s="12"/>
       <c r="L546" s="13"/>
     </row>
-    <row r="547" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F547" s="12"/>
       <c r="L547" s="13"/>
     </row>
-    <row r="548" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F548" s="12"/>
       <c r="L548" s="13"/>
     </row>
-    <row r="549" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F549" s="12"/>
       <c r="L549" s="13"/>
     </row>
-    <row r="550" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F550" s="12"/>
       <c r="L550" s="13"/>
     </row>
-    <row r="551" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F551" s="12"/>
       <c r="L551" s="13"/>
     </row>
-    <row r="552" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F552" s="12"/>
       <c r="L552" s="13"/>
     </row>
-    <row r="553" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F553" s="12"/>
       <c r="L553" s="13"/>
     </row>
-    <row r="554" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F554" s="12"/>
       <c r="L554" s="13"/>
     </row>
-    <row r="555" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F555" s="12"/>
       <c r="L555" s="13"/>
     </row>
-    <row r="556" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F556" s="12"/>
       <c r="L556" s="13"/>
     </row>
-    <row r="557" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F557" s="12"/>
       <c r="L557" s="13"/>
     </row>
-    <row r="558" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F558" s="12"/>
       <c r="L558" s="13"/>
     </row>
-    <row r="559" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F559" s="12"/>
       <c r="L559" s="13"/>
     </row>
-    <row r="560" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F560" s="12"/>
       <c r="L560" s="13"/>
     </row>
-    <row r="561" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F561" s="12"/>
       <c r="L561" s="13"/>
     </row>
-    <row r="562" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F562" s="12"/>
       <c r="L562" s="13"/>
     </row>
-    <row r="563" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F563" s="12"/>
       <c r="L563" s="13"/>
     </row>
-    <row r="564" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F564" s="12"/>
       <c r="L564" s="13"/>
     </row>
-    <row r="565" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F565" s="12"/>
       <c r="L565" s="13"/>
     </row>
-    <row r="566" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F566" s="12"/>
       <c r="L566" s="13"/>
     </row>
-    <row r="567" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F567" s="12"/>
       <c r="L567" s="13"/>
     </row>
-    <row r="568" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F568" s="12"/>
       <c r="L568" s="13"/>
     </row>
-    <row r="569" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F569" s="12"/>
       <c r="L569" s="13"/>
     </row>
-    <row r="570" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F570" s="12"/>
       <c r="L570" s="13"/>
     </row>
-    <row r="571" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F571" s="12"/>
       <c r="L571" s="13"/>
     </row>
-    <row r="572" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F572" s="12"/>
       <c r="L572" s="13"/>
     </row>
-    <row r="573" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F573" s="12"/>
       <c r="L573" s="13"/>
     </row>
-    <row r="574" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F574" s="12"/>
       <c r="L574" s="13"/>
     </row>
-    <row r="575" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F575" s="12"/>
       <c r="L575" s="13"/>
     </row>
-    <row r="576" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F576" s="12"/>
       <c r="L576" s="13"/>
     </row>
-    <row r="577" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F577" s="12"/>
       <c r="L577" s="13"/>
     </row>
-    <row r="578" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F578" s="12"/>
       <c r="L578" s="13"/>
     </row>
-    <row r="579" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F579" s="12"/>
       <c r="L579" s="13"/>
     </row>
-    <row r="580" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F580" s="12"/>
       <c r="L580" s="13"/>
     </row>
-    <row r="581" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F581" s="12"/>
       <c r="L581" s="13"/>
     </row>
-    <row r="582" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F582" s="12"/>
       <c r="L582" s="13"/>
     </row>
-    <row r="583" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F583" s="12"/>
       <c r="L583" s="13"/>
     </row>
-    <row r="584" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F584" s="12"/>
       <c r="L584" s="13"/>
     </row>
-    <row r="585" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F585" s="12"/>
       <c r="L585" s="13"/>
     </row>
-    <row r="586" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F586" s="12"/>
       <c r="L586" s="13"/>
     </row>
-    <row r="587" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F587" s="12"/>
       <c r="L587" s="13"/>
     </row>
-    <row r="588" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F588" s="12"/>
       <c r="L588" s="13"/>
     </row>
-    <row r="589" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F589" s="12"/>
       <c r="L589" s="13"/>
     </row>
-    <row r="590" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F590" s="12"/>
       <c r="L590" s="13"/>
     </row>
-    <row r="591" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F591" s="12"/>
       <c r="L591" s="13"/>
     </row>
-    <row r="592" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F592" s="12"/>
       <c r="L592" s="13"/>
     </row>
-    <row r="593" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F593" s="12"/>
       <c r="L593" s="13"/>
     </row>
-    <row r="594" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F594" s="12"/>
       <c r="L594" s="13"/>
     </row>
-    <row r="595" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F595" s="12"/>
       <c r="L595" s="13"/>
     </row>
-    <row r="596" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F596" s="12"/>
       <c r="L596" s="13"/>
     </row>
-    <row r="597" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F597" s="12"/>
       <c r="L597" s="13"/>
     </row>
-    <row r="598" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F598" s="12"/>
       <c r="L598" s="13"/>
     </row>
-    <row r="599" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F599" s="12"/>
       <c r="L599" s="13"/>
     </row>
-    <row r="600" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F600" s="12"/>
       <c r="L600" s="13"/>
     </row>
-    <row r="601" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F601" s="12"/>
       <c r="L601" s="13"/>
     </row>
-    <row r="602" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F602" s="12"/>
       <c r="L602" s="13"/>
     </row>
-    <row r="603" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F603" s="12"/>
       <c r="L603" s="13"/>
     </row>
-    <row r="604" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F604" s="12"/>
       <c r="L604" s="13"/>
     </row>
-    <row r="605" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F605" s="12"/>
       <c r="L605" s="13"/>
     </row>
-    <row r="606" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F606" s="12"/>
       <c r="L606" s="13"/>
     </row>
-    <row r="607" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F607" s="12"/>
       <c r="L607" s="13"/>
     </row>
-    <row r="608" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F608" s="12"/>
       <c r="L608" s="13"/>
     </row>
-    <row r="609" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F609" s="12"/>
       <c r="L609" s="13"/>
     </row>
-    <row r="610" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F610" s="12"/>
       <c r="L610" s="13"/>
     </row>
-    <row r="611" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F611" s="12"/>
       <c r="L611" s="13"/>
     </row>
-    <row r="612" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F612" s="12"/>
       <c r="L612" s="13"/>
     </row>
-    <row r="613" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F613" s="12"/>
       <c r="L613" s="13"/>
     </row>
-    <row r="614" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F614" s="12"/>
       <c r="L614" s="13"/>
     </row>
-    <row r="615" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F615" s="12"/>
       <c r="L615" s="13"/>
     </row>
-    <row r="616" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F616" s="12"/>
       <c r="L616" s="13"/>
     </row>
-    <row r="617" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F617" s="12"/>
       <c r="L617" s="13"/>
     </row>
-    <row r="618" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F618" s="12"/>
       <c r="L618" s="13"/>
     </row>
-    <row r="619" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F619" s="12"/>
       <c r="L619" s="13"/>
     </row>
-    <row r="620" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F620" s="12"/>
       <c r="L620" s="13"/>
     </row>
-    <row r="621" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F621" s="12"/>
       <c r="L621" s="13"/>
     </row>
-    <row r="622" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F622" s="12"/>
       <c r="L622" s="13"/>
     </row>
-    <row r="623" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F623" s="12"/>
       <c r="L623" s="13"/>
     </row>
-    <row r="624" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F624" s="12"/>
       <c r="L624" s="13"/>
     </row>
-    <row r="625" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F625" s="12"/>
       <c r="L625" s="13"/>
     </row>
-    <row r="626" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F626" s="12"/>
       <c r="L626" s="13"/>
     </row>
-    <row r="627" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F627" s="12"/>
       <c r="L627" s="13"/>
     </row>
-    <row r="628" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F628" s="12"/>
       <c r="L628" s="13"/>
     </row>
-    <row r="629" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F629" s="12"/>
       <c r="L629" s="13"/>
     </row>
-    <row r="630" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F630" s="12"/>
       <c r="L630" s="13"/>
     </row>
-    <row r="631" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F631" s="12"/>
       <c r="L631" s="13"/>
     </row>
-    <row r="632" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F632" s="12"/>
       <c r="L632" s="13"/>
     </row>
-    <row r="633" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F633" s="12"/>
       <c r="L633" s="13"/>
     </row>
-    <row r="634" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F634" s="12"/>
       <c r="L634" s="13"/>
     </row>
-    <row r="635" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F635" s="12"/>
       <c r="L635" s="13"/>
     </row>
-    <row r="636" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F636" s="12"/>
       <c r="L636" s="13"/>
     </row>
-    <row r="637" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F637" s="12"/>
       <c r="L637" s="13"/>
     </row>
-    <row r="638" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F638" s="12"/>
       <c r="L638" s="13"/>
     </row>
-    <row r="639" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F639" s="12"/>
       <c r="L639" s="13"/>
     </row>
-    <row r="640" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F640" s="12"/>
       <c r="L640" s="13"/>
     </row>
-    <row r="641" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F641" s="12"/>
       <c r="L641" s="13"/>
     </row>
-    <row r="642" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F642" s="12"/>
       <c r="L642" s="13"/>
     </row>
-    <row r="643" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F643" s="12"/>
       <c r="L643" s="13"/>
     </row>
-    <row r="644" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F644" s="12"/>
       <c r="L644" s="13"/>
     </row>
-    <row r="645" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F645" s="12"/>
       <c r="L645" s="13"/>
     </row>
-    <row r="646" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F646" s="12"/>
       <c r="L646" s="13"/>
     </row>
-    <row r="647" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F647" s="12"/>
       <c r="L647" s="13"/>
     </row>
-    <row r="648" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F648" s="12"/>
       <c r="L648" s="13"/>
     </row>
-    <row r="649" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F649" s="12"/>
       <c r="L649" s="13"/>
     </row>
-    <row r="650" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F650" s="12"/>
       <c r="L650" s="13"/>
     </row>
-    <row r="651" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F651" s="12"/>
       <c r="L651" s="13"/>
     </row>
-    <row r="652" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F652" s="12"/>
       <c r="L652" s="13"/>
     </row>
-    <row r="653" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F653" s="12"/>
       <c r="L653" s="13"/>
     </row>
-    <row r="654" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F654" s="12"/>
       <c r="L654" s="13"/>
     </row>
-    <row r="655" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F655" s="12"/>
       <c r="L655" s="13"/>
     </row>
-    <row r="656" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F656" s="12"/>
       <c r="L656" s="13"/>
     </row>
-    <row r="657" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F657" s="12"/>
       <c r="L657" s="13"/>
     </row>
-    <row r="658" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F658" s="12"/>
       <c r="L658" s="13"/>
     </row>
-    <row r="659" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F659" s="12"/>
       <c r="L659" s="13"/>
     </row>
-    <row r="660" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F660" s="12"/>
       <c r="L660" s="13"/>
     </row>
-    <row r="661" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F661" s="12"/>
       <c r="L661" s="13"/>
     </row>
-    <row r="662" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F662" s="12"/>
       <c r="L662" s="13"/>
     </row>
-    <row r="663" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F663" s="12"/>
       <c r="L663" s="13"/>
     </row>
-    <row r="664" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F664" s="12"/>
       <c r="L664" s="13"/>
     </row>
-    <row r="665" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F665" s="12"/>
       <c r="L665" s="13"/>
     </row>
-    <row r="666" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F666" s="12"/>
       <c r="L666" s="13"/>
     </row>
-    <row r="667" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F667" s="12"/>
       <c r="L667" s="13"/>
     </row>
-    <row r="668" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F668" s="12"/>
       <c r="L668" s="13"/>
     </row>
-    <row r="669" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F669" s="12"/>
       <c r="L669" s="13"/>
     </row>
-    <row r="670" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F670" s="12"/>
       <c r="L670" s="13"/>
     </row>
-    <row r="671" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F671" s="12"/>
       <c r="L671" s="13"/>
     </row>
-    <row r="672" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F672" s="12"/>
       <c r="L672" s="13"/>
     </row>
-    <row r="673" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F673" s="12"/>
       <c r="L673" s="13"/>
     </row>
-    <row r="674" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F674" s="12"/>
       <c r="L674" s="13"/>
     </row>
-    <row r="675" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F675" s="12"/>
       <c r="L675" s="13"/>
     </row>
-    <row r="676" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F676" s="12"/>
       <c r="L676" s="13"/>
     </row>
-    <row r="677" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F677" s="12"/>
       <c r="L677" s="13"/>
     </row>
-    <row r="678" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F678" s="12"/>
       <c r="L678" s="13"/>
     </row>
-    <row r="679" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F679" s="12"/>
       <c r="L679" s="13"/>
     </row>
-    <row r="680" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F680" s="12"/>
       <c r="L680" s="13"/>
     </row>
-    <row r="681" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F681" s="12"/>
       <c r="L681" s="13"/>
     </row>
-    <row r="682" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F682" s="12"/>
       <c r="L682" s="13"/>
     </row>
-    <row r="683" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F683" s="12"/>
       <c r="L683" s="13"/>
     </row>
-    <row r="684" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F684" s="12"/>
       <c r="L684" s="13"/>
     </row>
-    <row r="685" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F685" s="12"/>
       <c r="L685" s="13"/>
     </row>
-    <row r="686" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F686" s="12"/>
       <c r="L686" s="13"/>
     </row>
-    <row r="687" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F687" s="12"/>
       <c r="L687" s="13"/>
     </row>
-    <row r="688" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F688" s="12"/>
       <c r="L688" s="13"/>
     </row>
-    <row r="689" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F689" s="12"/>
       <c r="L689" s="13"/>
     </row>
-    <row r="690" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F690" s="12"/>
       <c r="L690" s="13"/>
     </row>
-    <row r="691" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F691" s="12"/>
       <c r="L691" s="13"/>
     </row>
-    <row r="692" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F692" s="12"/>
       <c r="L692" s="13"/>
     </row>
-    <row r="693" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F693" s="12"/>
       <c r="L693" s="13"/>
     </row>
-    <row r="694" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F694" s="12"/>
       <c r="L694" s="13"/>
     </row>
-    <row r="695" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F695" s="12"/>
       <c r="L695" s="13"/>
     </row>
-    <row r="696" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F696" s="12"/>
       <c r="L696" s="13"/>
     </row>
-    <row r="697" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F697" s="12"/>
       <c r="L697" s="13"/>
     </row>
-    <row r="698" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F698" s="12"/>
       <c r="L698" s="13"/>
     </row>
-    <row r="699" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F699" s="12"/>
       <c r="L699" s="13"/>
     </row>
-    <row r="700" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F700" s="12"/>
       <c r="L700" s="13"/>
     </row>
-    <row r="701" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F701" s="12"/>
       <c r="L701" s="13"/>
     </row>
-    <row r="702" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F702" s="12"/>
       <c r="L702" s="13"/>
     </row>
-    <row r="703" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F703" s="12"/>
       <c r="L703" s="13"/>
     </row>
-    <row r="704" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F704" s="12"/>
       <c r="L704" s="13"/>
     </row>
-    <row r="705" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F705" s="12"/>
       <c r="L705" s="13"/>
     </row>
-    <row r="706" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F706" s="12"/>
       <c r="L706" s="13"/>
     </row>
-    <row r="707" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F707" s="12"/>
       <c r="L707" s="13"/>
     </row>
-    <row r="708" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F708" s="12"/>
       <c r="L708" s="13"/>
     </row>
-    <row r="709" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F709" s="12"/>
       <c r="L709" s="13"/>
     </row>
-    <row r="710" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F710" s="12"/>
       <c r="L710" s="13"/>
     </row>
-    <row r="711" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F711" s="12"/>
       <c r="L711" s="13"/>
     </row>
-    <row r="712" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F712" s="12"/>
       <c r="L712" s="13"/>
     </row>
-    <row r="713" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F713" s="12"/>
       <c r="L713" s="13"/>
     </row>
-    <row r="714" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F714" s="12"/>
       <c r="L714" s="13"/>
     </row>
-    <row r="715" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F715" s="12"/>
       <c r="L715" s="13"/>
     </row>
-    <row r="716" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F716" s="12"/>
       <c r="L716" s="13"/>
     </row>
-    <row r="717" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F717" s="12"/>
       <c r="L717" s="13"/>
     </row>
-    <row r="718" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F718" s="12"/>
       <c r="L718" s="13"/>
     </row>
-    <row r="719" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F719" s="12"/>
       <c r="L719" s="13"/>
     </row>
-    <row r="720" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F720" s="12"/>
       <c r="L720" s="13"/>
     </row>
-    <row r="721" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F721" s="12"/>
       <c r="L721" s="13"/>
     </row>
-    <row r="722" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F722" s="12"/>
       <c r="L722" s="13"/>
     </row>
-    <row r="723" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F723" s="12"/>
       <c r="L723" s="13"/>
     </row>
-    <row r="724" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F724" s="12"/>
       <c r="L724" s="13"/>
     </row>
-    <row r="725" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F725" s="12"/>
       <c r="L725" s="13"/>
     </row>
-    <row r="726" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F726" s="12"/>
       <c r="L726" s="13"/>
     </row>
-    <row r="727" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F727" s="12"/>
       <c r="L727" s="13"/>
     </row>
-    <row r="728" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F728" s="12"/>
       <c r="L728" s="13"/>
     </row>
-    <row r="729" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F729" s="12"/>
       <c r="L729" s="13"/>
     </row>
-    <row r="730" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F730" s="12"/>
       <c r="L730" s="13"/>
     </row>
-    <row r="731" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F731" s="12"/>
       <c r="L731" s="13"/>
     </row>
-    <row r="732" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F732" s="12"/>
       <c r="L732" s="13"/>
     </row>
-    <row r="733" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F733" s="12"/>
       <c r="L733" s="13"/>
     </row>
-    <row r="734" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F734" s="12"/>
       <c r="L734" s="13"/>
     </row>
-    <row r="735" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F735" s="12"/>
       <c r="L735" s="13"/>
     </row>
-    <row r="736" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F736" s="12"/>
       <c r="L736" s="13"/>
     </row>
-    <row r="737" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="737" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F737" s="12"/>
       <c r="L737" s="13"/>
     </row>
-    <row r="738" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="738" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F738" s="12"/>
       <c r="L738" s="13"/>
     </row>
-    <row r="739" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="739" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F739" s="12"/>
       <c r="L739" s="13"/>
     </row>
-    <row r="740" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="740" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F740" s="12"/>
       <c r="L740" s="13"/>
     </row>
-    <row r="741" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="741" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F741" s="12"/>
       <c r="L741" s="13"/>
     </row>
-    <row r="742" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="742" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F742" s="12"/>
       <c r="L742" s="13"/>
     </row>
-    <row r="743" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="743" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F743" s="12"/>
       <c r="L743" s="13"/>
     </row>
-    <row r="744" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="744" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F744" s="12"/>
       <c r="L744" s="13"/>
     </row>
-    <row r="745" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="745" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F745" s="12"/>
       <c r="L745" s="13"/>
     </row>
-    <row r="746" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="746" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F746" s="12"/>
       <c r="L746" s="13"/>
     </row>
-    <row r="747" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="747" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F747" s="12"/>
       <c r="L747" s="13"/>
     </row>
-    <row r="748" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="748" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F748" s="12"/>
       <c r="L748" s="13"/>
     </row>
-    <row r="749" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="749" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F749" s="12"/>
       <c r="L749" s="13"/>
     </row>
-    <row r="750" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="750" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F750" s="12"/>
       <c r="L750" s="13"/>
     </row>
-    <row r="751" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="751" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F751" s="12"/>
       <c r="L751" s="13"/>
     </row>
@@ -7563,17 +7549,17 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -7587,7 +7573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7602,7 +7588,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -7614,7 +7600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -7626,7 +7612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>

--- a/Clases/AG_10-25-2023.xlsx
+++ b/Clases/AG_10-25-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6F8A8-3450-4A53-8C56-B89C80F187D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF93618-0AFC-431C-8081-36AE62B59388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{A56C292F-9C71-4E43-88C6-7084E961FE8A}"/>
   </bookViews>
@@ -2083,7 +2083,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="O1">
         <f ca="1">MAX(L2:L101)</f>
-        <v>80.098102781917788</v>
+        <v>78.526775902768193</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="F2" s="12">
         <f ca="1">RAND()*17.5</f>
-        <v>5.6189861519386239</v>
+        <v>12.75753129239725</v>
       </c>
       <c r="G2">
         <f ca="1">RAND()*15</f>
-        <v>13.275402701517333</v>
+        <v>8.3327445851797481</v>
       </c>
       <c r="H2">
         <f ca="1">IF(2*F2+4*G2&lt;=35,1,0)</f>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="O2">
         <f ca="1">INDEX(F2:F101, MATCH(O1,L2:L101,0))</f>
-        <v>8.7840279719977499</v>
+        <v>8.6263434795680567</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2346,15 +2346,15 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F66" ca="1" si="0">RAND()*17.5</f>
-        <v>12.175197142333619</v>
+        <v>9.3140397429875001</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">RAND()*15</f>
-        <v>1.4191725513644986</v>
+        <v>13.794443829467422</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">IF(2*F3+4*G3&lt;=35,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" ca="1" si="3">IF(3*F3+2*G3&lt;=30,1,0)</f>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="O3">
         <f ca="1">INDEX(G2:G101, MATCH(O1,L2:L101,0))</f>
-        <v>1.4694776845394402</v>
+        <v>2.0564870376409337</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -2392,11 +2392,11 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.122167409498835</v>
+        <v>9.1319577859243566</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>10.398174525745425</v>
+        <v>13.287476650668815</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
@@ -2448,15 +2448,15 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.656344440545382</v>
+        <v>7.6999256259579791</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55853180731460894</v>
+        <v>12.620881278575649</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
@@ -2500,23 +2500,23 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7601970579296395</v>
+        <v>1.855106484944586</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5674469423009416</v>
+        <v>4.4320857846280255</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>12.305591639739507</v>
       </c>
       <c r="N6" t="s">
         <v>6</v>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7954436680929646</v>
+        <v>11.331210079993779</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3927843085044529</v>
+        <v>12.360271183383052</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
@@ -2592,23 +2592,23 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.461343883282019</v>
+        <v>8.6263434795680567</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>10.722882182083403</v>
+        <v>2.0564870376409337</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>78.526775902768193</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2025956208424118</v>
+        <v>15.903557901718898</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>11.564135711871877</v>
+        <v>12.366195639944269</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
@@ -2642,11 +2642,11 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.98370929414066</v>
+        <v>0.1906496608059155</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7850940816207252</v>
+        <v>12.953386036590913</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2667,23 +2667,23 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.970251404011484</v>
+        <v>13.98184804270516</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2025365079724422</v>
+        <v>3.8891151238305581</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29.108472035023013</v>
+        <v>X</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2692,11 +2692,11 @@
       </c>
       <c r="F12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.348875132337181</v>
+        <v>17.239168302963627</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0056061852164113</v>
+        <v>1.9436569743908316</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.521609556187094</v>
+        <v>10.30273624351757</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>10.331455652639754</v>
+        <v>10.207360052285335</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
@@ -2742,11 +2742,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5114194672500352</v>
+        <v>10.208767589124772</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5701094573703038</v>
+        <v>11.759474208259345</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
@@ -2767,23 +2767,23 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1657173833006347</v>
+        <v>9.0247263753202009</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7842169570038919</v>
+        <v>6.687943143202796</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9273309317370622</v>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2792,11 +2792,11 @@
       </c>
       <c r="F16" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8214105005977252</v>
+        <v>0.93834935059181257</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8923119318887363</v>
+        <v>8.3879093180515714</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2817,23 +2817,23 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6281212418887763</v>
+        <v>7.3348182176883556</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9504101318396398</v>
+        <v>13.147109855441245</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>10.807841525746284</v>
+        <v>X</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
@@ -2842,11 +2842,11 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.348568508234024</v>
+        <v>8.45718943339544</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.051558478177252</v>
+        <v>5.3017615299933576</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2867,11 +2867,11 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.087099996767734</v>
+        <v>12.452957721240113</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7267045473686213</v>
+        <v>6.6852581120487979</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
@@ -2892,23 +2892,23 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4345901462240285</v>
+        <v>9.2772960727344866</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0859495783055326</v>
+        <v>12.754942228656226</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>51.575849506494436</v>
+        <v>X</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
@@ -2917,23 +2917,23 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0486163054567208</v>
+        <v>3.8024430868613743</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9726072834123158</v>
+        <v>14.832445515201567</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>11.044810722894335</v>
+        <v>X</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
@@ -2942,11 +2942,11 @@
       </c>
       <c r="F22" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6128632765374591</v>
+        <v>1.9589973536248708</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>14.680599200102174</v>
+        <v>9.7018269926407719</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="F23" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6113463439321976</v>
+        <v>9.9691647812908553</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>13.41362580420676</v>
+        <v>14.516264273382424</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
@@ -2992,23 +2992,23 @@
       </c>
       <c r="F24" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9925444284698841</v>
+        <v>9.6922821682267255</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61013805988904546</v>
+        <v>4.6086056639872437</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>50.115953703903308</v>
+        <v>X</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
@@ -3017,11 +3017,11 @@
       </c>
       <c r="F25" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0956773543269454</v>
+        <v>2.1076387247838069</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2715210084410811</v>
+        <v>0.29576920179610056</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="L25" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>16.126260298974838</v>
+        <v>5.0336793978005128</v>
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
@@ -3042,11 +3042,11 @@
       </c>
       <c r="F26" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7593173806452045</v>
+        <v>6.3205117960580699</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>10.536053723528024</v>
+        <v>10.068479975254277</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
@@ -3067,15 +3067,15 @@
       </c>
       <c r="F27" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.3265774290346</v>
+        <v>15.476007989888696</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40706845170646988</v>
+        <v>7.0198688559488343</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
@@ -3092,23 +3092,23 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4315267293634033</v>
+        <v>1.3094045110236918</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7638124392929018</v>
+        <v>13.746929559799067</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>33.029107490374912</v>
+        <v>X</v>
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="F29" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5820414782625232</v>
+        <v>8.8522839003831706</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4228954216703311</v>
+        <v>6.0891091683350993</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
@@ -3142,11 +3142,11 @@
       </c>
       <c r="F30" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.331880750289923</v>
+        <v>14.652784166065139</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96043611473609514</v>
+        <v>11.995838627370768</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
@@ -3167,23 +3167,23 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1721281167707576</v>
+        <v>11.908215350913839</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7255812735672023E-2</v>
+        <v>8.8042772307053347</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4483959475959067</v>
+        <v>X</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
@@ -3192,11 +3192,11 @@
       </c>
       <c r="F32" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8958581095303786</v>
+        <v>1.236292304700167</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4355647523652273</v>
+        <v>5.9837280626793135</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="L32" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>28.04883991432407</v>
+        <v>13.495874788019478</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
@@ -3217,11 +3217,11 @@
       </c>
       <c r="F33" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1580694171047212</v>
+        <v>6.3169385987845708</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6156885492079649</v>
+        <v>1.1180594749946478</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="L33" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>19.204779541668081</v>
+        <v>42.139832210803675</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="F34" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5513229615033985</v>
+        <v>5.3610956270727117</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>12.800251841148206</v>
+        <v>14.362558482176894</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
@@ -3267,11 +3267,11 @@
       </c>
       <c r="F35" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.792930416493412</v>
+        <v>1.573763553709723</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>10.562196220701461</v>
+        <v>9.1618024794483084</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3292,23 +3292,23 @@
       </c>
       <c r="F36" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1266266699197924</v>
+        <v>8.4031647850724536</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1673731439192334</v>
+        <v>9.2947916259791992</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>18.857287281052614</v>
+        <v>X</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
@@ -3317,15 +3317,15 @@
       </c>
       <c r="F37" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.391063438881224</v>
+        <v>13.40811627843523</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1247601563397382</v>
+        <v>7.7943339042405695</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="3"/>
@@ -3342,23 +3342,23 @@
       </c>
       <c r="F38" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.498370820589574</v>
+        <v>0.56941029019281608</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2007022840035342</v>
+        <v>3.2011679656354857</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>6.7265640098484383</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.25">
@@ -3367,23 +3367,23 @@
       </c>
       <c r="F39" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8907548325288364</v>
+        <v>9.1063715585758658</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9640411328430516</v>
+        <v>10.253927215847243</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29.84756509759027</v>
+        <v>X</v>
       </c>
     </row>
     <row r="40" spans="5:12" x14ac:dyDescent="0.25">
@@ -3392,23 +3392,23 @@
       </c>
       <c r="F40" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3222978187612953</v>
+        <v>12.997977971980516</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5731925572164744</v>
+        <v>13.061568648930749</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>14.894856635933827</v>
+        <v>X</v>
       </c>
     </row>
     <row r="41" spans="5:12" x14ac:dyDescent="0.25">
@@ -3417,23 +3417,23 @@
       </c>
       <c r="F41" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2037163034966012</v>
+        <v>9.4717200054107273</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58001217562952567</v>
+        <v>13.6978429819436</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>39.646120325528585</v>
+        <v>X</v>
       </c>
     </row>
     <row r="42" spans="5:12" x14ac:dyDescent="0.25">
@@ -3442,23 +3442,23 @@
       </c>
       <c r="F42" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97686113467783642</v>
+        <v>13.023746071454811</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4094359987647254</v>
+        <v>3.6934399107964881</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>11.773129673973521</v>
+        <v>X</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.692471632659398</v>
+        <v>11.610337154563666</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>13.530314595010768</v>
+        <v>10.618965192807149</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
@@ -3492,23 +3492,23 @@
       </c>
       <c r="F44" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3395824385809223</v>
+        <v>10.874328244834683</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8623568156613945</v>
+        <v>11.634978391051401</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>15.198359618239044</v>
+        <v>X</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.25">
@@ -3517,11 +3517,11 @@
       </c>
       <c r="F45" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.964446784086554</v>
+        <v>5.1255200182103335</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2176452272915297</v>
+        <v>14.685157718822165</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
@@ -3542,11 +3542,11 @@
       </c>
       <c r="F46" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9049167060680929</v>
+        <v>13.960585181222109</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>11.386455392480626</v>
+        <v>5.3030026907912005</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
@@ -3567,11 +3567,11 @@
       </c>
       <c r="F47" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6226702769701378</v>
+        <v>1.8576365833985125</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0346253462636392</v>
+        <v>1.6296275056354803</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="L47" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>37.683671736050727</v>
+        <v>6.710068687251459</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.25">
@@ -3592,23 +3592,23 @@
       </c>
       <c r="F48" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8263893943658323</v>
+        <v>2.9507802982703959</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>12.397846306746365</v>
+        <v>3.4729050131870451</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>15.652914395034816</v>
       </c>
     </row>
     <row r="49" spans="5:12" x14ac:dyDescent="0.25">
@@ -3617,23 +3617,23 @@
       </c>
       <c r="F49" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9116038359363854</v>
+        <v>8.0351707961189529</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10887178342954218</v>
+        <v>13.859673858617288</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>15.518388136171328</v>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="5:12" x14ac:dyDescent="0.25">
@@ -3642,11 +3642,11 @@
       </c>
       <c r="F50" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.675230478405048</v>
+        <v>5.5157332080001238</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8775657122675611</v>
+        <v>14.544473231676701</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
@@ -3667,15 +3667,15 @@
       </c>
       <c r="F51" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7232012894194355</v>
+        <v>17.443408706201446</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4653579557793261</v>
+        <v>4.2093095656190851</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="3"/>
@@ -3692,23 +3692,23 @@
       </c>
       <c r="F52" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51041840547565664</v>
+        <v>1.609728736317557</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>12.211278750628946</v>
+        <v>5.7292870052469071</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L52" s="13" t="str">
+      <c r="L52" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>14.049800615020333</v>
       </c>
     </row>
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
@@ -3717,23 +3717,23 @@
       </c>
       <c r="F53" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6650592552827073</v>
+        <v>1.9778841615704534</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>6.497757378794236</v>
+        <v>6.5700573316492639</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L53" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>17.052140419889785</v>
       </c>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.25">
@@ -3742,15 +3742,15 @@
       </c>
       <c r="F54" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.866344519621324</v>
+        <v>8.8180301107765704</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5500517674477905</v>
+        <v>10.478114276264435</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="3"/>
@@ -3767,15 +3767,15 @@
       </c>
       <c r="F55" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.090488441660669</v>
+        <v>11.475438902894911</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3254573780867851</v>
+        <v>2.6564188587264854</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="3"/>
@@ -3792,11 +3792,11 @@
       </c>
       <c r="F56" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.022193458423274</v>
+        <v>9.5676196137539193</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>2.736505253023866</v>
+        <v>7.9733283582280556</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
@@ -3817,11 +3817,11 @@
       </c>
       <c r="F57" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5324744914492534</v>
+        <v>8.6711616259276525</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>11.659351296296759</v>
+        <v>13.116838007355858</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3842,15 +3842,15 @@
       </c>
       <c r="F58" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.649052754617809</v>
+        <v>3.7131448781156755</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2263959875200174</v>
+        <v>12.993253231125406</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="3"/>
@@ -3867,11 +3867,11 @@
       </c>
       <c r="F59" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>13.711395849469994</v>
+        <v>12.523242565193769</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1449154316647538</v>
+        <v>2.9886714286827716</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
@@ -3892,23 +3892,23 @@
       </c>
       <c r="F60" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.713954917214686</v>
+        <v>1.8707221521806796</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7626706352197647</v>
+        <v>0.81992464305268908</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L60" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>X</v>
+        <v>5.1394506567648923</v>
       </c>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
@@ -3917,11 +3917,11 @@
       </c>
       <c r="F61" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93327377826201907</v>
+        <v>11.92042400520517</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3264548743899685</v>
+        <v>10.229412680781639</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3942,11 +3942,11 @@
       </c>
       <c r="F62" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.452237752439309</v>
+        <v>11.582490450590122</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9743350170806284</v>
+        <v>4.1126210632207565</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
@@ -3967,15 +3967,15 @@
       </c>
       <c r="F63" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1853686028209065</v>
+        <v>11.364489537654073</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7588566865741919</v>
+        <v>2.7581316862110117</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="3"/>
@@ -3992,23 +3992,23 @@
       </c>
       <c r="F64" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59157937806587979</v>
+        <v>13.482108325791446</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0402148598275875</v>
+        <v>9.8281824230238932</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L64" s="13">
+        <v>0</v>
+      </c>
+      <c r="L64" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12.430395880207989</v>
+        <v>X</v>
       </c>
     </row>
     <row r="65" spans="5:12" x14ac:dyDescent="0.25">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="F65" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.013419954133246</v>
+        <v>12.612891684297823</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2660074670735888</v>
+        <v>8.0632582660430785</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
@@ -4042,11 +4042,11 @@
       </c>
       <c r="F66" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.860664181615399</v>
+        <v>11.927350012815815</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>14.248901813976394</v>
+        <v>9.4823908521908979</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="F67" s="12">
         <f t="shared" ref="F67:F101" ca="1" si="5">RAND()*17.5</f>
-        <v>5.0364309299437346</v>
+        <v>9.8020564511925965</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="6">RAND()*15</f>
-        <v>9.6054537516525809</v>
+        <v>12.584864387422959</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H101" ca="1" si="7">IF(2*F67+4*G67&lt;=35,1,0)</f>
@@ -4092,23 +4092,23 @@
       </c>
       <c r="F68" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.819908398735159</v>
+        <v>5.2263071766729521</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7984398499194691</v>
+        <v>5.0813287140203984</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L68" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>37.476944132984002</v>
       </c>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.25">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="F69" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.7515982695295573</v>
+        <v>7.8419913953410658</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6429483749922404</v>
+        <v>10.107603110237072</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="7"/>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="F70" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.027398272683746</v>
+        <v>4.5829688557452828</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="6"/>
-        <v>11.171022595641002</v>
+        <v>8.991490300767035</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="7"/>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="F71" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7246380091649216</v>
+        <v>2.8908244383418982</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="6"/>
-        <v>3.182160948244936</v>
+        <v>2.229948804413346</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="7"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="L71" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8894221408163734</v>
+        <v>12.816763542141443</v>
       </c>
     </row>
     <row r="72" spans="5:12" x14ac:dyDescent="0.25">
@@ -4192,11 +4192,11 @@
       </c>
       <c r="F72" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0416255090217685</v>
+        <v>7.4261476871200225</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="6"/>
-        <v>14.168079348219102</v>
+        <v>13.502038683973339</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="7"/>
@@ -4217,11 +4217,11 @@
       </c>
       <c r="F73" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7919167360113892</v>
+        <v>13.352142995648862</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0738699032535459</v>
+        <v>2.5390209739034191</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="7"/>
@@ -4242,23 +4242,23 @@
       </c>
       <c r="F74" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>4.023005427407095</v>
+        <v>14.685047287090541</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3333481204337176</v>
+        <v>10.415754422755706</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L74" s="13">
+        <v>0</v>
+      </c>
+      <c r="L74" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>20.851268909814376</v>
+        <v>X</v>
       </c>
     </row>
     <row r="75" spans="5:12" x14ac:dyDescent="0.25">
@@ -4267,11 +4267,11 @@
       </c>
       <c r="F75" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3633971549098405</v>
+        <v>17.497660071545219</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="6"/>
-        <v>12.412443623625681</v>
+        <v>4.3234870282307014</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="7"/>
@@ -4292,11 +4292,11 @@
       </c>
       <c r="F76" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1296102904068341</v>
+        <v>16.543769299112114</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5823250042783625</v>
+        <v>2.5220438968375571</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="7"/>
@@ -4317,11 +4317,11 @@
       </c>
       <c r="F77" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.332035703701797</v>
+        <v>6.1240246895494437</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="6"/>
-        <v>11.994363416506461</v>
+        <v>5.8318986203505219</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="7"/>
@@ -4342,11 +4342,11 @@
       </c>
       <c r="F78" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74423255820938006</v>
+        <v>10.989522964639692</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="6"/>
-        <v>12.041613845696334</v>
+        <v>4.8999344449618656</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="7"/>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="F79" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>14.019030716528658</v>
+        <v>8.0096581916868725</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21043268937179227</v>
+        <v>3.9779882310363361</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="7"/>
@@ -4392,11 +4392,11 @@
       </c>
       <c r="F80" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8871768949858057</v>
+        <v>5.2264110924150264</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="6"/>
-        <v>12.466891564177713</v>
+        <v>13.187927461001825</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="7"/>
@@ -4417,11 +4417,11 @@
       </c>
       <c r="F81" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.358201088359575</v>
+        <v>17.082075802570696</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7946351583596254</v>
+        <v>4.7483782797571212</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="7"/>
@@ -4442,11 +4442,11 @@
       </c>
       <c r="F82" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4550341528509003</v>
+        <v>11.509849746717927</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="6"/>
-        <v>13.241094226730018</v>
+        <v>9.9772389258416183</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="7"/>
@@ -4467,23 +4467,23 @@
       </c>
       <c r="F83" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8340433180685736</v>
+        <v>4.2039723969632972</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9271112248459836</v>
+        <v>2.1368247367912518</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L83" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>21.947033388011832</v>
       </c>
     </row>
     <row r="84" spans="5:12" x14ac:dyDescent="0.25">
@@ -4492,23 +4492,23 @@
       </c>
       <c r="F84" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4422056426524454</v>
+        <v>6.4956627627848693</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8455221720812167</v>
+        <v>10.506587372030415</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L84" s="13">
+        <v>0</v>
+      </c>
+      <c r="L84" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>21.539824030470768</v>
+        <v>X</v>
       </c>
     </row>
     <row r="85" spans="5:12" x14ac:dyDescent="0.25">
@@ -4517,11 +4517,11 @@
       </c>
       <c r="F85" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.862630328501524</v>
+        <v>13.535376527922962</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9401317582934672</v>
+        <v>7.05059304644044</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="7"/>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="F86" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>12.939031936216983</v>
+        <v>11.475365068397588</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1293157680216463</v>
+        <v>12.583182426300054</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="7"/>
@@ -4567,23 +4567,23 @@
       </c>
       <c r="F87" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9036416683296689</v>
+        <v>13.769722462241925</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6569362629541047</v>
+        <v>14.627549431546566</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L87" s="13">
+        <v>0</v>
+      </c>
+      <c r="L87" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>28.552290800627851</v>
+        <v>X</v>
       </c>
     </row>
     <row r="88" spans="5:12" x14ac:dyDescent="0.25">
@@ -4592,23 +4592,23 @@
       </c>
       <c r="F88" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6418121748716294</v>
+        <v>9.149664423220127</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7444817550914871</v>
+        <v>13.966913921963032</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L88" s="13">
+        <v>0</v>
+      </c>
+      <c r="L88" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>10.468135077482943</v>
+        <v>X</v>
       </c>
     </row>
     <row r="89" spans="5:12" x14ac:dyDescent="0.25">
@@ -4617,23 +4617,23 @@
       </c>
       <c r="F89" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>17.301545576727474</v>
+        <v>2.0945443730997821</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86953784915759058</v>
+        <v>6.9694874872743799</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L89" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>18.32609110543272</v>
       </c>
     </row>
     <row r="90" spans="5:12" x14ac:dyDescent="0.25">
@@ -4642,11 +4642,11 @@
       </c>
       <c r="F90" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.155830433930692</v>
+        <v>3.4505852005088657</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="6"/>
-        <v>13.78531717154069</v>
+        <v>14.663450068220641</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="7"/>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="F91" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1045789545297133</v>
+        <v>6.7060162400331507</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="6"/>
-        <v>11.93061276236709</v>
+        <v>7.7198523749273793</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="7"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4692,23 +4692,23 @@
       </c>
       <c r="F92" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1825286575248661</v>
+        <v>3.110101550192522</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5854710229977342</v>
+        <v>10.189951298240924</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>54.759659962161422</v>
+        <v>X</v>
       </c>
     </row>
     <row r="93" spans="5:12" x14ac:dyDescent="0.25">
@@ -4717,11 +4717,11 @@
       </c>
       <c r="F93" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.483311961793296</v>
+        <v>3.9732137873999105</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="6"/>
-        <v>6.439682032228168</v>
+        <v>8.7259957028327335</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="7"/>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4742,11 +4742,11 @@
       </c>
       <c r="F94" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>14.613863074619005</v>
+        <v>2.2334576668553705</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="6"/>
-        <v>10.849701589975162</v>
+        <v>13.96531233250025</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="7"/>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="F95" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>13.200513413268105</v>
+        <v>9.1121405022272093</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4077361968438797</v>
+        <v>7.3946636119477702</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="7"/>
@@ -4792,23 +4792,23 @@
       </c>
       <c r="F96" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0682914742233534</v>
+        <v>2.4412191239803178</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="6"/>
-        <v>14.557604881087181</v>
+        <v>4.757636769872871</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L96" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>15.474824351032971</v>
       </c>
     </row>
     <row r="97" spans="5:12" x14ac:dyDescent="0.25">
@@ -4817,23 +4817,23 @@
       </c>
       <c r="F97" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5855033457444838</v>
+        <v>16.470382418954674</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0256712580184075</v>
+        <v>13.089213112474605</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="L97" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>16.565163375403767</v>
+        <v>X</v>
       </c>
     </row>
     <row r="98" spans="5:12" x14ac:dyDescent="0.25">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="F98" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1187204170403966</v>
+        <v>0.16902721367485302</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="6"/>
-        <v>14.046901188087149</v>
+        <v>10.56213375817506</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="7"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4867,15 +4867,15 @@
       </c>
       <c r="F99" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>11.567710919590956</v>
+        <v>12.868132194752175</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7717794830633142</v>
+        <v>2.0798448176171953</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
@@ -4892,23 +4892,23 @@
       </c>
       <c r="F100" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7840279719977499</v>
+        <v>3.3212953686510343</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4694776845394402</v>
+        <v>8.5409531236470979</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="L100" s="13">
+      <c r="L100" s="13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>80.098102781917788</v>
+        <v>X</v>
       </c>
     </row>
     <row r="101" spans="5:12" x14ac:dyDescent="0.25">
@@ -4917,23 +4917,23 @@
       </c>
       <c r="F101" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>16.379872221738001</v>
+        <v>2.7641372320002815</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="6"/>
-        <v>14.215072816015123</v>
+        <v>7.0668838839148123</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="L101" s="13">
         <f t="shared" ca="1" si="9"/>
-        <v>X</v>
+        <v>21.774222405159804</v>
       </c>
     </row>
     <row r="102" spans="5:12" x14ac:dyDescent="0.25">
